--- a/examples/quadratic_programming/quadratic_programming.xlsx
+++ b/examples/quadratic_programming/quadratic_programming.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="quadratic_programming" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>result</t>
-  </si>
-  <si>
-    <t>D:\Users\Tandem Algorithms\My Development\GitHub\tdmalgorithms\examples\quadratic_programming\quadratic_programming.py</t>
   </si>
   <si>
     <t>q</t>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">        QUADRATIC PROGRAMMING</t>
+  </si>
+  <si>
+    <t>D:\Users\Tandem Algorithms\My Development\GitHub\tandem-algorithms\examples\quadratic_programming\quadratic_programming.py</t>
   </si>
 </sst>
 </file>
@@ -759,304 +759,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>22.62112893004911</c:v>
+                  <c:v>56.459535777361936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.669464633094933</c:v>
+                  <c:v>37.576386154518822</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.567189111436448</c:v>
+                  <c:v>43.81716159161585</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.649062256990291</c:v>
+                  <c:v>32.877838742161302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.598311593185102</c:v>
+                  <c:v>34.956306037377473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.295019841719181</c:v>
+                  <c:v>42.183901609692441</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.453149410232218</c:v>
+                  <c:v>52.843776263513767</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.485814982042712</c:v>
+                  <c:v>28.804968644516229</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.287539631255342</c:v>
+                  <c:v>65.864243395000457</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.561591278064565</c:v>
+                  <c:v>45.331331088820335</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53.605561712866105</c:v>
+                  <c:v>39.261745105673867</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72.334110982651111</c:v>
+                  <c:v>71.747642828598529</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.842633274480129</c:v>
+                  <c:v>47.575455269829597</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>86.671131157849302</c:v>
+                  <c:v>50.904979570312236</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38.232051183710794</c:v>
+                  <c:v>46.736006056710494</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.008469370251575</c:v>
+                  <c:v>56.420886591857837</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75.352200191331107</c:v>
+                  <c:v>28.27012332608539</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.679416227982266</c:v>
+                  <c:v>38.206527180646333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41.914450717609242</c:v>
+                  <c:v>39.905993614930068</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47.16250178429128</c:v>
+                  <c:v>58.911468290007974</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40.182451018458693</c:v>
+                  <c:v>8.8235471708229518</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>56.220340297529603</c:v>
+                  <c:v>48.873050142970783</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.155494739946093</c:v>
+                  <c:v>44.461709995966494</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41.699174996917961</c:v>
+                  <c:v>66.534734008059402</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18.63603804320001</c:v>
+                  <c:v>63.542281557521882</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>69.637018366898502</c:v>
+                  <c:v>20.28707756819982</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.423670012578981</c:v>
+                  <c:v>38.376724892009406</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42.068314700226324</c:v>
+                  <c:v>21.674032866907226</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>59.170491115890023</c:v>
+                  <c:v>47.45258744957416</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>70.349937797906136</c:v>
+                  <c:v>55.645593439246639</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44.179487087684933</c:v>
+                  <c:v>35.917078483313915</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>49.802209485868069</c:v>
+                  <c:v>57.221490584418902</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>61.793348463273816</c:v>
+                  <c:v>41.667165128690165</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39.242382288724301</c:v>
+                  <c:v>45.637418392978589</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50.968240264212945</c:v>
+                  <c:v>45.365356182290284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>52.120029983824566</c:v>
+                  <c:v>47.902049745008171</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.717439224407087</c:v>
+                  <c:v>67.539680932103806</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>29.458646235582268</c:v>
+                  <c:v>44.287343174134378</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>55.19235139342981</c:v>
+                  <c:v>33.671091007576365</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41.153026645045543</c:v>
+                  <c:v>53.48364264823627</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>57.371597929946766</c:v>
+                  <c:v>53.433933625273184</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>52.236170211223367</c:v>
+                  <c:v>54.900861129569009</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44.811619953285316</c:v>
+                  <c:v>39.87931546152565</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62.769412633304157</c:v>
+                  <c:v>60.630452543521798</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>50.930056956336514</c:v>
+                  <c:v>56.110694944982711</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>69.826097764135511</c:v>
+                  <c:v>28.98248295050854</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>55.262703452879848</c:v>
+                  <c:v>37.765316773753995</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>39.033627248004869</c:v>
+                  <c:v>57.577132893906011</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>39.732564328211652</c:v>
+                  <c:v>62.15544139747842</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>23.869643393146081</c:v>
+                  <c:v>36.188787069628155</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35.541602119664113</c:v>
+                  <c:v>75.175018325352383</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>32.607489706352716</c:v>
+                  <c:v>61.943373190344957</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>72.078506741946271</c:v>
+                  <c:v>55.822163511912713</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>34.846024503813524</c:v>
+                  <c:v>32.790811748555782</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>47.643361007916567</c:v>
+                  <c:v>38.927578350388153</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>21.376221646608151</c:v>
+                  <c:v>67.880191589152233</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>35.047035367106496</c:v>
+                  <c:v>72.78902085968771</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>34.844616998588577</c:v>
+                  <c:v>26.120115254448525</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>75.205174851817674</c:v>
+                  <c:v>31.778993271446595</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>22.568732999876325</c:v>
+                  <c:v>59.572863249382983</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>33.110647005621225</c:v>
+                  <c:v>39.389240910908853</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>40.43488750763504</c:v>
+                  <c:v>40.888036917107726</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>44.248088245717796</c:v>
+                  <c:v>39.960563104658391</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>28.860358192833981</c:v>
+                  <c:v>41.052285273041193</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>56.999988175344356</c:v>
+                  <c:v>39.965975128578123</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>49.495233217013663</c:v>
+                  <c:v>34.505727016162083</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>46.164031432262647</c:v>
+                  <c:v>41.236917865922479</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>41.466709893113972</c:v>
+                  <c:v>73.430234180926362</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>75.302314448082242</c:v>
+                  <c:v>65.894410758861383</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>47.619019202312643</c:v>
+                  <c:v>49.651555568933652</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>46.826119325889067</c:v>
+                  <c:v>38.133399644218159</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>59.831112240761854</c:v>
+                  <c:v>82.624972160835398</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>33.77306737493366</c:v>
+                  <c:v>33.075925215385716</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42.519255217374209</c:v>
+                  <c:v>56.066165764268177</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43.077990221259796</c:v>
+                  <c:v>30.129852361927789</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>36.513218260894789</c:v>
+                  <c:v>41.952144997507617</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>24.588756266382784</c:v>
+                  <c:v>26.418182149348119</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>39.181518536909017</c:v>
+                  <c:v>39.711204746173948</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>67.821204097341322</c:v>
+                  <c:v>73.13562268135</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>35.573830738805746</c:v>
+                  <c:v>38.190844551062838</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>43.179771987778054</c:v>
+                  <c:v>47.433048150512931</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42.601166633689317</c:v>
+                  <c:v>63.55044916493182</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>79.324277837056314</c:v>
+                  <c:v>46.364643829262398</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>43.610711910284991</c:v>
+                  <c:v>68.305783480262704</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43.221656299150283</c:v>
+                  <c:v>54.92296140893059</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>40.481460850611278</c:v>
+                  <c:v>32.779989929665696</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>74.36106101460544</c:v>
+                  <c:v>57.802643413650394</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>51.157727153454296</c:v>
+                  <c:v>17.455538392457399</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>48.500900283580862</c:v>
+                  <c:v>36.234154681752628</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>50.747959018199168</c:v>
+                  <c:v>68.469263911808838</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>36.560588252811492</c:v>
+                  <c:v>61.514999360325263</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>37.886704139313636</c:v>
+                  <c:v>74.621009705722315</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>69.469125876378712</c:v>
+                  <c:v>27.820014520121298</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>65.476755114033821</c:v>
+                  <c:v>61.95110081496663</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>28.658815828175992</c:v>
+                  <c:v>40.999383708156074</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>48.523437391825809</c:v>
+                  <c:v>50.55454672155259</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>21.652950775022681</c:v>
+                  <c:v>55.123284279618758</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>31.732535195771508</c:v>
+                  <c:v>68.257177907448607</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>41.121411909788385</c:v>
+                  <c:v>43.578047850241937</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>44.040955426969617</c:v>
+                  <c:v>41.872041560760003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,11 +1114,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="655099584"/>
-        <c:axId val="655100160"/>
+        <c:axId val="21138240"/>
+        <c:axId val="21138816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="655099584"/>
+        <c:axId val="21138240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1148,12 +1148,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655100160"/>
+        <c:crossAx val="21138816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="655100160"/>
+        <c:axId val="21138816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655099584"/>
+        <c:crossAx val="21138240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1929,9 +1929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V336"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1951,7 +1949,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1968,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -2001,7 +1999,7 @@
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.tdmPyScript(D3,D7)</f>
-        <v>[quadratic_programming.xlsx]quadratic_programming!$D$5:8</v>
+        <v>[quadratic_programming.xlsx]quadratic_programming!$D$5:0</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2031,7 +2029,7 @@
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.tdmGrid(B9:F30)</f>
-        <v>[quadratic_programming.xlsx]quadratic_programming!$D$7:9</v>
+        <v>[quadratic_programming.xlsx]quadratic_programming!$D$7:0</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2057,7 +2055,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="24">
         <v>1</v>
@@ -2109,7 +2107,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="24">
         <v>3</v>
@@ -2158,7 +2156,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="27">
@@ -2247,7 +2245,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="38"/>
       <c r="K19" s="2"/>
@@ -2273,7 +2271,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="27">
@@ -2406,7 +2404,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="27">
@@ -2434,7 +2432,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" s="38"/>
       <c r="K28" s="2"/>
@@ -2458,7 +2456,7 @@
     </row>
     <row r="30" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="27">
@@ -2566,15 +2564,15 @@
     </row>
     <row r="38" spans="2:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38" s="40"/>
       <c r="H38" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I38" s="36"/>
       <c r="J38" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -2597,15 +2595,15 @@
       </c>
       <c r="H39" s="19">
         <f t="shared" ref="H39:H70" ca="1" si="1">_xlfn.NORM.INV(RAND(),$E$39,1)</f>
-        <v>-0.46954950284008679</v>
+        <v>2.1332134046605282</v>
       </c>
       <c r="I39" s="19">
         <f t="shared" ref="I39:I70" ca="1" si="2">_xlfn.NORM.INV(RAND(),$E$40,1)</f>
-        <v>3.2734524462587125</v>
+        <v>5.0362842561651098</v>
       </c>
       <c r="J39" s="21">
         <f t="array" aca="1" ref="J39" ca="1">MMULT(MMULT(H39:I39,$D$9:$E$10),TRANSPOSE(H39:I39))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H39:I39))</f>
-        <v>22.62112893004911</v>
+        <v>56.459535777361936</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -2627,15 +2625,15 @@
       </c>
       <c r="H40" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70254347791855465</v>
+        <v>-0.10182544350564868</v>
       </c>
       <c r="I40" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0883714457129967</v>
+        <v>4.4708186548604996</v>
       </c>
       <c r="J40" s="21">
         <f t="array" aca="1" ref="J40" ca="1">MMULT(MMULT(H40:I40,$D$9:$E$10),TRANSPOSE(H40:I40))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H40:I40))</f>
-        <v>35.669464633094933</v>
+        <v>37.576386154518822</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
@@ -2653,15 +2651,15 @@
       </c>
       <c r="H41" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19463795961597513</v>
+        <v>2.0855106606878318</v>
       </c>
       <c r="I41" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7901347890497878</v>
+        <v>4.100104498589328</v>
       </c>
       <c r="J41" s="21">
         <f t="array" aca="1" ref="J41" ca="1">MMULT(MMULT(H41:I41,$D$9:$E$10),TRANSPOSE(H41:I41))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H41:I41))</f>
-        <v>19.567189111436448</v>
+        <v>43.81716159161585</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
@@ -2679,15 +2677,15 @@
       </c>
       <c r="H42" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12515800799652793</v>
+        <v>0.49438370914412105</v>
       </c>
       <c r="I42" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7274009621870352</v>
+        <v>3.9287665127631599</v>
       </c>
       <c r="J42" s="21">
         <f t="array" aca="1" ref="J42" ca="1">MMULT(MMULT(H42:I42,$D$9:$E$10),TRANSPOSE(H42:I42))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H42:I42))</f>
-        <v>41.649062256990291</v>
+        <v>32.877838742161302</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.2">
@@ -2705,15 +2703,15 @@
       </c>
       <c r="H43" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1698113843253748</v>
+        <v>-4.3925090687905788E-2</v>
       </c>
       <c r="I43" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6135684067879703</v>
+        <v>4.2518918653355842</v>
       </c>
       <c r="J43" s="21">
         <f t="array" aca="1" ref="J43" ca="1">MMULT(MMULT(H43:I43,$D$9:$E$10),TRANSPOSE(H43:I43))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H43:I43))</f>
-        <v>37.598311593185102</v>
+        <v>34.956306037377473</v>
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
@@ -2723,7 +2721,7 @@
     </row>
     <row r="44" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D44" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" s="38"/>
       <c r="G44" s="2">
@@ -2731,15 +2729,15 @@
       </c>
       <c r="H44" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1148704100369284</v>
+        <v>1.9867409650255528</v>
       </c>
       <c r="I44" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9567733210630101</v>
+        <v>4.0230008345097481</v>
       </c>
       <c r="J44" s="21">
         <f t="array" aca="1" ref="J44" ca="1">MMULT(MMULT(H44:I44,$D$9:$E$10),TRANSPOSE(H44:I44))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H44:I44))</f>
-        <v>42.295019841719181</v>
+        <v>42.183901609692441</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
@@ -2761,15 +2759,15 @@
       </c>
       <c r="H45" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6475524382769431</v>
+        <v>0.37252949115473205</v>
       </c>
       <c r="I45" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4480618285947111</v>
+        <v>5.455696450920569</v>
       </c>
       <c r="J45" s="21">
         <f t="array" aca="1" ref="J45" ca="1">MMULT(MMULT(H45:I45,$D$9:$E$10),TRANSPOSE(H45:I45))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H45:I45))</f>
-        <v>23.453149410232218</v>
+        <v>52.843776263513767</v>
       </c>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
@@ -2785,15 +2783,15 @@
       </c>
       <c r="H46" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4664147757009976</v>
+        <v>-0.37845633515784405</v>
       </c>
       <c r="I46" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1773484646276087</v>
+        <v>3.8135280555243436</v>
       </c>
       <c r="J46" s="21">
         <f t="array" aca="1" ref="J46" ca="1">MMULT(MMULT(H46:I46,$D$9:$E$10),TRANSPOSE(H46:I46))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H46:I46))</f>
-        <v>64.485814982042712</v>
+        <v>28.804968644516229</v>
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
@@ -2809,15 +2807,15 @@
       </c>
       <c r="H47" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81105048136389335</v>
+        <v>0.20047016821672295</v>
       </c>
       <c r="I47" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4184566138475265</v>
+        <v>6.320014699626765</v>
       </c>
       <c r="J47" s="21">
         <f t="array" aca="1" ref="J47" ca="1">MMULT(MMULT(H47:I47,$D$9:$E$10),TRANSPOSE(H47:I47))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H47:I47))</f>
-        <v>40.287539631255342</v>
+        <v>65.864243395000457</v>
       </c>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
@@ -2833,15 +2831,15 @@
       </c>
       <c r="H48" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2355276486091074</v>
+        <v>-0.24533696295076049</v>
       </c>
       <c r="I48" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8942044122522876</v>
+        <v>5.0715734990370223</v>
       </c>
       <c r="J48" s="21">
         <f t="array" aca="1" ref="J48" ca="1">MMULT(MMULT(H48:I48,$D$9:$E$10),TRANSPOSE(H48:I48))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H48:I48))</f>
-        <v>28.561591278064565</v>
+        <v>45.331331088820335</v>
       </c>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
@@ -2857,15 +2855,15 @@
       </c>
       <c r="H49" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1262521455914223</v>
+        <v>1.2652140260329376</v>
       </c>
       <c r="I49" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7276046906005158</v>
+        <v>4.1534816564205812</v>
       </c>
       <c r="J49" s="21">
         <f t="array" aca="1" ref="J49" ca="1">MMULT(MMULT(H49:I49,$D$9:$E$10),TRANSPOSE(H49:I49))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H49:I49))</f>
-        <v>53.605561712866105</v>
+        <v>39.261745105673867</v>
       </c>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
@@ -2881,15 +2879,15 @@
       </c>
       <c r="H50" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8282020897383287</v>
+        <v>2.4626085223530696</v>
       </c>
       <c r="I50" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>6.216275423360182</v>
+        <v>5.8927420157492385</v>
       </c>
       <c r="J50" s="21">
         <f t="array" aca="1" ref="J50" ca="1">MMULT(MMULT(H50:I50,$D$9:$E$10),TRANSPOSE(H50:I50))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H50:I50))</f>
-        <v>72.334110982651111</v>
+        <v>71.747642828598529</v>
       </c>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
@@ -2905,15 +2903,15 @@
       </c>
       <c r="H51" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5539593913566225</v>
+        <v>0.91650738328700121</v>
       </c>
       <c r="I51" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>3.810848931991333</v>
+        <v>4.927188992394318</v>
       </c>
       <c r="J51" s="21">
         <f t="array" aca="1" ref="J51" ca="1">MMULT(MMULT(H51:I51,$D$9:$E$10),TRANSPOSE(H51:I51))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H51:I51))</f>
-        <v>36.842633274480129</v>
+        <v>47.575455269829597</v>
       </c>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
@@ -2929,15 +2927,15 @@
       </c>
       <c r="H52" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0696607307648001</v>
+        <v>-1.1767175857299572</v>
       </c>
       <c r="I52" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9542533706102496</v>
+        <v>5.5531760240931742</v>
       </c>
       <c r="J52" s="21">
         <f t="array" aca="1" ref="J52" ca="1">MMULT(MMULT(H52:I52,$D$9:$E$10),TRANSPOSE(H52:I52))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H52:I52))</f>
-        <v>86.671131157849302</v>
+        <v>50.904979570312236</v>
       </c>
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
@@ -2953,15 +2951,15 @@
       </c>
       <c r="H53" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6440427563576803</v>
+        <v>9.3917539537775444E-2</v>
       </c>
       <c r="I53" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6679309285603487</v>
+        <v>5.1024948387073357</v>
       </c>
       <c r="J53" s="21">
         <f t="array" aca="1" ref="J53" ca="1">MMULT(MMULT(H53:I53,$D$9:$E$10),TRANSPOSE(H53:I53))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H53:I53))</f>
-        <v>38.232051183710794</v>
+        <v>46.736006056710494</v>
       </c>
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
@@ -2977,15 +2975,15 @@
       </c>
       <c r="H54" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50938288946372257</v>
+        <v>-1.6503470279355119</v>
       </c>
       <c r="I54" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6763412312670209</v>
+        <v>5.9150667946043765</v>
       </c>
       <c r="J54" s="21">
         <f t="array" aca="1" ref="J54" ca="1">MMULT(MMULT(H54:I54,$D$9:$E$10),TRANSPOSE(H54:I54))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H54:I54))</f>
-        <v>30.008469370251575</v>
+        <v>56.420886591857837</v>
       </c>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
@@ -3001,15 +2999,15 @@
       </c>
       <c r="H55" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3542909191695374</v>
+        <v>-2.982092411348372</v>
       </c>
       <c r="I55" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0322183905779561</v>
+        <v>3.6853782117207432</v>
       </c>
       <c r="J55" s="21">
         <f t="array" aca="1" ref="J55" ca="1">MMULT(MMULT(H55:I55,$D$9:$E$10),TRANSPOSE(H55:I55))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H55:I55))</f>
-        <v>75.352200191331107</v>
+        <v>28.27012332608539</v>
       </c>
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
@@ -3025,15 +3023,15 @@
       </c>
       <c r="H56" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.44730489030598619</v>
+        <v>1.0866600985506603</v>
       </c>
       <c r="I56" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9850855661392655</v>
+        <v>4.1453817387703609</v>
       </c>
       <c r="J56" s="21">
         <f t="array" aca="1" ref="J56" ca="1">MMULT(MMULT(H56:I56,$D$9:$E$10),TRANSPOSE(H56:I56))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H56:I56))</f>
-        <v>30.679416227982266</v>
+        <v>38.206527180646333</v>
       </c>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
@@ -3049,15 +3047,15 @@
       </c>
       <c r="H57" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1416868627059975</v>
+        <v>-0.39940945102736886</v>
       </c>
       <c r="I57" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4176273837778854</v>
+        <v>4.7040804036379358</v>
       </c>
       <c r="J57" s="21">
         <f t="array" aca="1" ref="J57" ca="1">MMULT(MMULT(H57:I57,$D$9:$E$10),TRANSPOSE(H57:I57))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H57:I57))</f>
-        <v>41.914450717609242</v>
+        <v>39.905993614930068</v>
       </c>
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
@@ -3073,15 +3071,15 @@
       </c>
       <c r="H58" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53543776368122087</v>
+        <v>-0.34647960993523658</v>
       </c>
       <c r="I58" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0192232401079586</v>
+        <v>5.9894216936967855</v>
       </c>
       <c r="J58" s="21">
         <f t="array" aca="1" ref="J58" ca="1">MMULT(MMULT(H58:I58,$D$9:$E$10),TRANSPOSE(H58:I58))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H58:I58))</f>
-        <v>47.16250178429128</v>
+        <v>58.911468290007974</v>
       </c>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
@@ -3097,15 +3095,15 @@
       </c>
       <c r="H59" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12975092130486157</v>
+        <v>0.44758626216221747</v>
       </c>
       <c r="I59" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.616370829462678</v>
+        <v>1.3586388496323853</v>
       </c>
       <c r="J59" s="21">
         <f t="array" aca="1" ref="J59" ca="1">MMULT(MMULT(H59:I59,$D$9:$E$10),TRANSPOSE(H59:I59))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H59:I59))</f>
-        <v>40.182451018458693</v>
+        <v>8.8235471708229518</v>
       </c>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
@@ -3121,15 +3119,15 @@
       </c>
       <c r="H60" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.29638311359385677</v>
+        <v>-0.11426268891234251</v>
       </c>
       <c r="I60" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8116353402016649</v>
+        <v>5.2940237350608017</v>
       </c>
       <c r="J60" s="21">
         <f t="array" aca="1" ref="J60" ca="1">MMULT(MMULT(H60:I60,$D$9:$E$10),TRANSPOSE(H60:I60))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H60:I60))</f>
-        <v>56.220340297529603</v>
+        <v>48.873050142970783</v>
       </c>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
@@ -3145,15 +3143,15 @@
       </c>
       <c r="H61" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.669368764159153</v>
+        <v>0.22508228495966467</v>
       </c>
       <c r="I61" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7702515378637065</v>
+        <v>4.9091100082488799</v>
       </c>
       <c r="J61" s="21">
         <f t="array" aca="1" ref="J61" ca="1">MMULT(MMULT(H61:I61,$D$9:$E$10),TRANSPOSE(H61:I61))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H61:I61))</f>
-        <v>54.155494739946093</v>
+        <v>44.461709995966494</v>
       </c>
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
@@ -3169,15 +3167,15 @@
       </c>
       <c r="H62" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.754952227933265E-2</v>
+        <v>-3.7161599596135672E-2</v>
       </c>
       <c r="I62" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7424411381690392</v>
+        <v>6.405048353362595</v>
       </c>
       <c r="J62" s="21">
         <f t="array" aca="1" ref="J62" ca="1">MMULT(MMULT(H62:I62,$D$9:$E$10),TRANSPOSE(H62:I62))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H62:I62))</f>
-        <v>41.699174996917961</v>
+        <v>66.534734008059402</v>
       </c>
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
@@ -3193,15 +3191,15 @@
       </c>
       <c r="H63" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.66743585614094336</v>
+        <v>0.32077143527881397</v>
       </c>
       <c r="I63" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9186253150204728</v>
+        <v>6.1533473455995118</v>
       </c>
       <c r="J63" s="21">
         <f t="array" aca="1" ref="J63" ca="1">MMULT(MMULT(H63:I63,$D$9:$E$10),TRANSPOSE(H63:I63))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H63:I63))</f>
-        <v>18.63603804320001</v>
+        <v>63.542281557521882</v>
       </c>
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
@@ -3217,15 +3215,15 @@
       </c>
       <c r="H64" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90243666262728228</v>
+        <v>-1.6544834931892349</v>
       </c>
       <c r="I64" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3734889054063233</v>
+        <v>3.1490982141081627</v>
       </c>
       <c r="J64" s="21">
         <f t="array" aca="1" ref="J64" ca="1">MMULT(MMULT(H64:I64,$D$9:$E$10),TRANSPOSE(H64:I64))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H64:I64))</f>
-        <v>69.637018366898502</v>
+        <v>20.28707756819982</v>
       </c>
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
@@ -3241,15 +3239,15 @@
       </c>
       <c r="H65" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5087629583780365E-3</v>
+        <v>-1.5598027086965436</v>
       </c>
       <c r="I65" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.279425929777541</v>
+        <v>4.6800560273130918</v>
       </c>
       <c r="J65" s="21">
         <f t="array" aca="1" ref="J65" ca="1">MMULT(MMULT(H65:I65,$D$9:$E$10),TRANSPOSE(H65:I65))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H65:I65))</f>
-        <v>35.423670012578981</v>
+        <v>38.376724892009406</v>
       </c>
       <c r="K65" s="15"/>
       <c r="L65" s="15"/>
@@ -3265,15 +3263,15 @@
       </c>
       <c r="H66" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42867541669381981</v>
+        <v>-0.59855416767379421</v>
       </c>
       <c r="I66" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6782127726860612</v>
+        <v>3.2068635740039264</v>
       </c>
       <c r="J66" s="21">
         <f t="array" aca="1" ref="J66" ca="1">MMULT(MMULT(H66:I66,$D$9:$E$10),TRANSPOSE(H66:I66))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H66:I66))</f>
-        <v>42.068314700226324</v>
+        <v>21.674032866907226</v>
       </c>
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
@@ -3289,15 +3287,15 @@
       </c>
       <c r="H67" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93841883095666034</v>
+        <v>-1.433313456881258</v>
       </c>
       <c r="I67" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7119780031277303</v>
+        <v>5.3279014973279377</v>
       </c>
       <c r="J67" s="21">
         <f t="array" aca="1" ref="J67" ca="1">MMULT(MMULT(H67:I67,$D$9:$E$10),TRANSPOSE(H67:I67))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H67:I67))</f>
-        <v>59.170491115890023</v>
+        <v>47.45258744957416</v>
       </c>
       <c r="K67" s="15"/>
       <c r="L67" s="15"/>
@@ -3313,15 +3311,15 @@
       </c>
       <c r="H68" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.83280459094818904</v>
+        <v>0.15477066075867324</v>
       </c>
       <c r="I68" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7266710768795637</v>
+        <v>5.6913800776934007</v>
       </c>
       <c r="J68" s="21">
         <f t="array" aca="1" ref="J68" ca="1">MMULT(MMULT(H68:I68,$D$9:$E$10),TRANSPOSE(H68:I68))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H68:I68))</f>
-        <v>70.349937797906136</v>
+        <v>55.645593439246639</v>
       </c>
       <c r="K68" s="15"/>
       <c r="L68" s="15"/>
@@ -3337,15 +3335,15 @@
       </c>
       <c r="H69" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12753144575806696</v>
+        <v>-2.4324423279941131E-2</v>
       </c>
       <c r="I69" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9123533243573121</v>
+        <v>4.323722011251431</v>
       </c>
       <c r="J69" s="21">
         <f t="array" aca="1" ref="J69" ca="1">MMULT(MMULT(H69:I69,$D$9:$E$10),TRANSPOSE(H69:I69))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H69:I69))</f>
-        <v>44.179487087684933</v>
+        <v>35.917078483313915</v>
       </c>
       <c r="K69" s="15"/>
       <c r="L69" s="15"/>
@@ -3361,15 +3359,15 @@
       </c>
       <c r="H70" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21956866691680274</v>
+        <v>0.27134140335006601</v>
       </c>
       <c r="I70" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3764968031665852</v>
+        <v>5.7674860937884347</v>
       </c>
       <c r="J70" s="21">
         <f t="array" aca="1" ref="J70" ca="1">MMULT(MMULT(H70:I70,$D$9:$E$10),TRANSPOSE(H70:I70))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H70:I70))</f>
-        <v>49.802209485868069</v>
+        <v>57.221490584418902</v>
       </c>
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
@@ -3385,15 +3383,15 @@
       </c>
       <c r="H71" s="19">
         <f t="shared" ref="H71:H102" ca="1" si="3">_xlfn.NORM.INV(RAND(),$E$39,1)</f>
-        <v>-1.0437145709385485</v>
+        <v>0.34136869692088562</v>
       </c>
       <c r="I71" s="19">
         <f t="shared" ref="I71:I102" ca="1" si="4">_xlfn.NORM.INV(RAND(),$E$40,1)</f>
-        <v>6.2362098121951721</v>
+        <v>4.6728199773926198</v>
       </c>
       <c r="J71" s="21">
         <f t="array" aca="1" ref="J71" ca="1">MMULT(MMULT(H71:I71,$D$9:$E$10),TRANSPOSE(H71:I71))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H71:I71))</f>
-        <v>61.793348463273816</v>
+        <v>41.667165128690165</v>
       </c>
       <c r="K71" s="15"/>
       <c r="L71" s="15"/>
@@ -3409,15 +3407,15 @@
       </c>
       <c r="H72" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.5273497575617767</v>
+        <v>1.1742651584473829</v>
       </c>
       <c r="I72" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7447486446483396</v>
+        <v>4.6884769757615956</v>
       </c>
       <c r="J72" s="21">
         <f t="array" aca="1" ref="J72" ca="1">MMULT(MMULT(H72:I72,$D$9:$E$10),TRANSPOSE(H72:I72))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H72:I72))</f>
-        <v>39.242382288724301</v>
+        <v>45.637418392978589</v>
       </c>
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
@@ -3433,15 +3431,15 @@
       </c>
       <c r="H73" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98047885491618381</v>
+        <v>-2.8840264572438764E-2</v>
       </c>
       <c r="I73" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1460104194247185</v>
+        <v>5.032143714056688</v>
       </c>
       <c r="J73" s="21">
         <f t="array" aca="1" ref="J73" ca="1">MMULT(MMULT(H73:I73,$D$9:$E$10),TRANSPOSE(H73:I73))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H73:I73))</f>
-        <v>50.968240264212945</v>
+        <v>45.365356182290284</v>
       </c>
       <c r="K73" s="15"/>
       <c r="L73" s="15"/>
@@ -3457,15 +3455,15 @@
       </c>
       <c r="H74" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-9.0810148455862716E-2</v>
+        <v>3.3939582827093778E-2</v>
       </c>
       <c r="I74" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5089422654678586</v>
+        <v>5.1971577099049604</v>
       </c>
       <c r="J74" s="21">
         <f t="array" aca="1" ref="J74" ca="1">MMULT(MMULT(H74:I74,$D$9:$E$10),TRANSPOSE(H74:I74))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H74:I74))</f>
-        <v>52.120029983824566</v>
+        <v>47.902049745008171</v>
       </c>
       <c r="K74" s="15"/>
       <c r="L74" s="15"/>
@@ -3481,15 +3479,15 @@
       </c>
       <c r="H75" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.45651810400279069</v>
+        <v>-1.8776138848496076</v>
       </c>
       <c r="I75" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.4713665293454952</v>
+        <v>6.5817881986257731</v>
       </c>
       <c r="J75" s="21">
         <f t="array" aca="1" ref="J75" ca="1">MMULT(MMULT(H75:I75,$D$9:$E$10),TRANSPOSE(H75:I75))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H75:I75))</f>
-        <v>36.717439224407087</v>
+        <v>67.539680932103806</v>
       </c>
       <c r="K75" s="15"/>
       <c r="L75" s="15"/>
@@ -3505,15 +3503,15 @@
       </c>
       <c r="H76" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.9158958139648532</v>
+        <v>-0.72722943276593466</v>
       </c>
       <c r="I76" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>3.9470554508461149</v>
+        <v>5.0668358424793709</v>
       </c>
       <c r="J76" s="21">
         <f t="array" aca="1" ref="J76" ca="1">MMULT(MMULT(H76:I76,$D$9:$E$10),TRANSPOSE(H76:I76))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H76:I76))</f>
-        <v>29.458646235582268</v>
+        <v>44.287343174134378</v>
       </c>
       <c r="K76" s="15"/>
       <c r="L76" s="15"/>
@@ -3529,15 +3527,15 @@
       </c>
       <c r="H77" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3824592505135613</v>
+        <v>-1.1910631466394177</v>
       </c>
       <c r="I77" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8094685226918763</v>
+        <v>4.310756612975343</v>
       </c>
       <c r="J77" s="21">
         <f t="array" aca="1" ref="J77" ca="1">MMULT(MMULT(H77:I77,$D$9:$E$10),TRANSPOSE(H77:I77))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H77:I77))</f>
-        <v>55.19235139342981</v>
+        <v>33.671091007576365</v>
       </c>
       <c r="K77" s="15"/>
       <c r="L77" s="15"/>
@@ -3553,15 +3551,15 @@
       </c>
       <c r="H78" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.4411174569715432</v>
+        <v>0.77894495404539321</v>
       </c>
       <c r="I78" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8030724239210576</v>
+        <v>5.3851237325225165</v>
       </c>
       <c r="J78" s="21">
         <f t="array" aca="1" ref="J78" ca="1">MMULT(MMULT(H78:I78,$D$9:$E$10),TRANSPOSE(H78:I78))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H78:I78))</f>
-        <v>41.153026645045543</v>
+        <v>53.48364264823627</v>
       </c>
       <c r="K78" s="15"/>
       <c r="L78" s="15"/>
@@ -3577,15 +3575,15 @@
       </c>
       <c r="H79" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.3973778488934772</v>
+        <v>-0.65529202118618191</v>
       </c>
       <c r="I79" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.9756546204088501</v>
+        <v>5.6792188441143843</v>
       </c>
       <c r="J79" s="21">
         <f t="array" aca="1" ref="J79" ca="1">MMULT(MMULT(H79:I79,$D$9:$E$10),TRANSPOSE(H79:I79))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H79:I79))</f>
-        <v>57.371597929946766</v>
+        <v>53.433933625273184</v>
       </c>
       <c r="K79" s="15"/>
       <c r="L79" s="15"/>
@@ -3601,15 +3599,15 @@
       </c>
       <c r="H80" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.11495442834166375</v>
+        <v>-0.1278009404290725</v>
       </c>
       <c r="I80" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5211580873993737</v>
+        <v>5.6985668062621677</v>
       </c>
       <c r="J80" s="21">
         <f t="array" aca="1" ref="J80" ca="1">MMULT(MMULT(H80:I80,$D$9:$E$10),TRANSPOSE(H80:I80))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H80:I80))</f>
-        <v>52.236170211223367</v>
+        <v>54.900861129569009</v>
       </c>
       <c r="K80" s="15"/>
       <c r="L80" s="15"/>
@@ -3625,15 +3623,15 @@
       </c>
       <c r="H81" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2949839418735895E-3</v>
+        <v>-6.5541406353709974E-2</v>
       </c>
       <c r="I81" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9860382001896042</v>
+        <v>4.6386477542222373</v>
       </c>
       <c r="J81" s="21">
         <f t="array" aca="1" ref="J81" ca="1">MMULT(MMULT(H81:I81,$D$9:$E$10),TRANSPOSE(H81:I81))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H81:I81))</f>
-        <v>44.811619953285316</v>
+        <v>39.87931546152565</v>
       </c>
       <c r="K81" s="15"/>
       <c r="L81" s="15"/>
@@ -3649,15 +3647,15 @@
       </c>
       <c r="H82" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4848323913866499</v>
+        <v>0.3773807467203828</v>
       </c>
       <c r="I82" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.7530760494550295</v>
+        <v>5.9596415795791593</v>
       </c>
       <c r="J82" s="21">
         <f t="array" aca="1" ref="J82" ca="1">MMULT(MMULT(H82:I82,$D$9:$E$10),TRANSPOSE(H82:I82))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H82:I82))</f>
-        <v>62.769412633304157</v>
+        <v>60.630452543521798</v>
       </c>
       <c r="K82" s="15"/>
       <c r="L82" s="15"/>
@@ -3673,15 +3671,15 @@
       </c>
       <c r="H83" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17483160531964295</v>
+        <v>1.1153287110764463</v>
       </c>
       <c r="I83" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3739403340520013</v>
+        <v>5.4512247770418201</v>
       </c>
       <c r="J83" s="21">
         <f t="array" aca="1" ref="J83" ca="1">MMULT(MMULT(H83:I83,$D$9:$E$10),TRANSPOSE(H83:I83))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H83:I83))</f>
-        <v>50.930056956336514</v>
+        <v>56.110694944982711</v>
       </c>
       <c r="K83" s="15"/>
       <c r="L83" s="15"/>
@@ -3697,15 +3695,15 @@
       </c>
       <c r="H84" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2562964359613335</v>
+        <v>0.91724019087739483</v>
       </c>
       <c r="I84" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>6.543507511155183</v>
+        <v>3.4212021554370722</v>
       </c>
       <c r="J84" s="21">
         <f t="array" aca="1" ref="J84" ca="1">MMULT(MMULT(H84:I84,$D$9:$E$10),TRANSPOSE(H84:I84))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H84:I84))</f>
-        <v>69.826097764135511</v>
+        <v>28.98248295050854</v>
       </c>
       <c r="K84" s="15"/>
       <c r="L84" s="15"/>
@@ -3721,15 +3719,15 @@
       </c>
       <c r="H85" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26266512066134018</v>
+        <v>-0.57112954479275102</v>
       </c>
       <c r="I85" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.6423631898309958</v>
+        <v>4.5690575009811774</v>
       </c>
       <c r="J85" s="21">
         <f t="array" aca="1" ref="J85" ca="1">MMULT(MMULT(H85:I85,$D$9:$E$10),TRANSPOSE(H85:I85))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H85:I85))</f>
-        <v>55.262703452879848</v>
+        <v>37.765316773753995</v>
       </c>
       <c r="K85" s="15"/>
       <c r="L85" s="15"/>
@@ -3745,15 +3743,15 @@
       </c>
       <c r="H86" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64442351785756091</v>
+        <v>0.28489760411003723</v>
       </c>
       <c r="I86" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.3784853236535923</v>
+        <v>5.7872506982084673</v>
       </c>
       <c r="J86" s="21">
         <f t="array" aca="1" ref="J86" ca="1">MMULT(MMULT(H86:I86,$D$9:$E$10),TRANSPOSE(H86:I86))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H86:I86))</f>
-        <v>39.033627248004869</v>
+        <v>57.577132893906011</v>
       </c>
       <c r="K86" s="15"/>
       <c r="L86" s="15"/>
@@ -3769,15 +3767,15 @@
       </c>
       <c r="H87" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3453891664672154</v>
+        <v>0.73314830803250441</v>
       </c>
       <c r="I87" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5251132674074777</v>
+        <v>5.9635726926932726</v>
       </c>
       <c r="J87" s="21">
         <f t="array" aca="1" ref="J87" ca="1">MMULT(MMULT(H87:I87,$D$9:$E$10),TRANSPOSE(H87:I87))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H87:I87))</f>
-        <v>39.732564328211652</v>
+        <v>62.15544139747842</v>
       </c>
       <c r="K87" s="15"/>
       <c r="L87" s="15"/>
@@ -3793,15 +3791,15 @@
       </c>
       <c r="H88" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40402289423610166</v>
+        <v>-0.99921701813400254</v>
       </c>
       <c r="I88" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>3.1472653138701583</v>
+        <v>4.4952292857682519</v>
       </c>
       <c r="J88" s="21">
         <f t="array" aca="1" ref="J88" ca="1">MMULT(MMULT(H88:I88,$D$9:$E$10),TRANSPOSE(H88:I88))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H88:I88))</f>
-        <v>23.869643393146081</v>
+        <v>36.188787069628155</v>
       </c>
       <c r="K88" s="15"/>
       <c r="L88" s="15"/>
@@ -3817,15 +3815,15 @@
       </c>
       <c r="H89" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.93468141540075156</v>
+        <v>0.22957673287636549</v>
       </c>
       <c r="I89" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.4398770964647154</v>
+        <v>6.8562736323154052</v>
       </c>
       <c r="J89" s="21">
         <f t="array" aca="1" ref="J89" ca="1">MMULT(MMULT(H89:I89,$D$9:$E$10),TRANSPOSE(H89:I89))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H89:I89))</f>
-        <v>35.541602119664113</v>
+        <v>75.175018325352383</v>
       </c>
       <c r="K89" s="15"/>
       <c r="L89" s="15"/>
@@ -3841,15 +3839,15 @@
       </c>
       <c r="H90" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.97170285493306252</v>
+        <v>1.2806078964609715</v>
       </c>
       <c r="I90" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2111506045874334</v>
+        <v>5.7757053002595109</v>
       </c>
       <c r="J90" s="21">
         <f t="array" aca="1" ref="J90" ca="1">MMULT(MMULT(H90:I90,$D$9:$E$10),TRANSPOSE(H90:I90))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H90:I90))</f>
-        <v>32.607489706352716</v>
+        <v>61.943373190344957</v>
       </c>
       <c r="K90" s="15"/>
       <c r="L90" s="15"/>
@@ -3865,15 +3863,15 @@
       </c>
       <c r="H91" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.11890595241089505</v>
+        <v>-0.66146647137734182</v>
       </c>
       <c r="I91" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>6.7419154636532728</v>
+        <v>5.8338384610156693</v>
       </c>
       <c r="J91" s="21">
         <f t="array" aca="1" ref="J91" ca="1">MMULT(MMULT(H91:I91,$D$9:$E$10),TRANSPOSE(H91:I91))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H91:I91))</f>
-        <v>72.078506741946271</v>
+        <v>55.822163511912713</v>
       </c>
       <c r="K91" s="15"/>
       <c r="L91" s="15"/>
@@ -3889,15 +3887,15 @@
       </c>
       <c r="H92" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.24746162372614544</v>
+        <v>1.4292286704080241</v>
       </c>
       <c r="I92" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2870638711384812</v>
+        <v>3.5190969501373521</v>
       </c>
       <c r="J92" s="21">
         <f t="array" aca="1" ref="J92" ca="1">MMULT(MMULT(H92:I92,$D$9:$E$10),TRANSPOSE(H92:I92))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H92:I92))</f>
-        <v>34.846024503813524</v>
+        <v>32.790811748555782</v>
       </c>
       <c r="K92" s="15"/>
       <c r="L92" s="15"/>
@@ -3913,15 +3911,15 @@
       </c>
       <c r="H93" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.309485332830576</v>
+        <v>1.5132651926185692</v>
       </c>
       <c r="I93" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2964439629074613</v>
+        <v>4.008145406807456</v>
       </c>
       <c r="J93" s="21">
         <f t="array" aca="1" ref="J93" ca="1">MMULT(MMULT(H93:I93,$D$9:$E$10),TRANSPOSE(H93:I93))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H93:I93))</f>
-        <v>47.643361007916567</v>
+        <v>38.927578350388153</v>
       </c>
       <c r="K93" s="15"/>
       <c r="L93" s="15"/>
@@ -3937,15 +3935,15 @@
       </c>
       <c r="H94" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.98611425060691127</v>
+        <v>2.3842629284842451</v>
       </c>
       <c r="I94" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>3.2308835853208255</v>
+        <v>5.6839243288540544</v>
       </c>
       <c r="J94" s="21">
         <f t="array" aca="1" ref="J94" ca="1">MMULT(MMULT(H94:I94,$D$9:$E$10),TRANSPOSE(H94:I94))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H94:I94))</f>
-        <v>21.376221646608151</v>
+        <v>67.880191589152233</v>
       </c>
       <c r="K94" s="15"/>
       <c r="L94" s="15"/>
@@ -3961,15 +3959,15 @@
       </c>
       <c r="H95" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.3200223189625651</v>
+        <v>1.1579346301353897</v>
       </c>
       <c r="I95" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.4237561754346562</v>
+        <v>6.483773002716112</v>
       </c>
       <c r="J95" s="21">
         <f t="array" aca="1" ref="J95" ca="1">MMULT(MMULT(H95:I95,$D$9:$E$10),TRANSPOSE(H95:I95))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H95:I95))</f>
-        <v>35.047035367106496</v>
+        <v>72.78902085968771</v>
       </c>
       <c r="K95" s="15"/>
       <c r="L95" s="15"/>
@@ -3985,15 +3983,15 @@
       </c>
       <c r="H96" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.0246234198238715</v>
+        <v>1.8415824386620563E-2</v>
       </c>
       <c r="I96" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.3928580545487339</v>
+        <v>3.4831130426702699</v>
       </c>
       <c r="J96" s="21">
         <f t="array" aca="1" ref="J96" ca="1">MMULT(MMULT(H96:I96,$D$9:$E$10),TRANSPOSE(H96:I96))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H96:I96))</f>
-        <v>34.844616998588577</v>
+        <v>26.120115254448525</v>
       </c>
       <c r="K96" s="15"/>
       <c r="L96" s="15"/>
@@ -4009,15 +4007,15 @@
       </c>
       <c r="H97" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.77112470115114018</v>
+        <v>1.3894380713805188</v>
       </c>
       <c r="I97" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>6.9957720986330942</v>
+        <v>3.4479483205242891</v>
       </c>
       <c r="J97" s="21">
         <f t="array" aca="1" ref="J97" ca="1">MMULT(MMULT(H97:I97,$D$9:$E$10),TRANSPOSE(H97:I97))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H97:I97))</f>
-        <v>75.205174851817674</v>
+        <v>31.778993271446595</v>
       </c>
       <c r="K97" s="15"/>
       <c r="L97" s="15"/>
@@ -4033,15 +4031,15 @@
       </c>
       <c r="H98" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-8.5488280803245317E-2</v>
+        <v>1.3886724915316737</v>
       </c>
       <c r="I98" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>3.1785991924584556</v>
+        <v>5.5814533228168841</v>
       </c>
       <c r="J98" s="21">
         <f t="array" aca="1" ref="J98" ca="1">MMULT(MMULT(H98:I98,$D$9:$E$10),TRANSPOSE(H98:I98))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H98:I98))</f>
-        <v>22.568732999876325</v>
+        <v>59.572863249382983</v>
       </c>
       <c r="K98" s="15"/>
       <c r="L98" s="15"/>
@@ -4057,15 +4055,15 @@
       </c>
       <c r="H99" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59505395183547849</v>
+        <v>-0.14843923231143058</v>
       </c>
       <c r="I99" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>3.9136618050510608</v>
+        <v>4.6191029907498748</v>
       </c>
       <c r="J99" s="21">
         <f t="array" aca="1" ref="J99" ca="1">MMULT(MMULT(H99:I99,$D$9:$E$10),TRANSPOSE(H99:I99))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H99:I99))</f>
-        <v>33.110647005621225</v>
+        <v>39.389240910908853</v>
       </c>
       <c r="K99" s="15"/>
       <c r="L99" s="15"/>
@@ -4081,15 +4079,15 @@
       </c>
       <c r="H100" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.5276585384707394</v>
+        <v>4.0524012000856098E-2</v>
       </c>
       <c r="I100" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.763093936197115</v>
+        <v>4.6906518879371175</v>
       </c>
       <c r="J100" s="21">
         <f t="array" aca="1" ref="J100" ca="1">MMULT(MMULT(H100:I100,$D$9:$E$10),TRANSPOSE(H100:I100))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H100:I100))</f>
-        <v>40.43488750763504</v>
+        <v>40.888036917107726</v>
       </c>
       <c r="K100" s="15"/>
       <c r="L100" s="15"/>
@@ -4105,15 +4103,15 @@
       </c>
       <c r="H101" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3594294444659249</v>
+        <v>-0.84474418170932841</v>
       </c>
       <c r="I101" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.858615777747791</v>
+        <v>4.766180822092668</v>
       </c>
       <c r="J101" s="21">
         <f t="array" aca="1" ref="J101" ca="1">MMULT(MMULT(H101:I101,$D$9:$E$10),TRANSPOSE(H101:I101))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H101:I101))</f>
-        <v>44.248088245717796</v>
+        <v>39.960563104658391</v>
       </c>
       <c r="K101" s="15"/>
       <c r="L101" s="15"/>
@@ -4129,15 +4127,15 @@
       </c>
       <c r="H102" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68166374882695235</v>
+        <v>-0.8377524333821581</v>
       </c>
       <c r="I102" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5091470737209685</v>
+        <v>4.8457076649204014</v>
       </c>
       <c r="J102" s="21">
         <f t="array" aca="1" ref="J102" ca="1">MMULT(MMULT(H102:I102,$D$9:$E$10),TRANSPOSE(H102:I102))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H102:I102))</f>
-        <v>28.860358192833981</v>
+        <v>41.052285273041193</v>
       </c>
       <c r="K102" s="15"/>
       <c r="L102" s="15"/>
@@ -4153,15 +4151,15 @@
       </c>
       <c r="H103" s="19">
         <f t="shared" ref="H103:H138" ca="1" si="5">_xlfn.NORM.INV(RAND(),$E$39,1)</f>
-        <v>0.50325424554236209</v>
+        <v>-1.747649167925811</v>
       </c>
       <c r="I103" s="19">
         <f t="shared" ref="I103:I138" ca="1" si="6">_xlfn.NORM.INV(RAND(),$E$40,1)</f>
-        <v>5.6965551127150942</v>
+        <v>4.7937209994379204</v>
       </c>
       <c r="J103" s="21">
         <f t="array" aca="1" ref="J103" ca="1">MMULT(MMULT(H103:I103,$D$9:$E$10),TRANSPOSE(H103:I103))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H103:I103))</f>
-        <v>56.999988175344356</v>
+        <v>39.965975128578123</v>
       </c>
       <c r="K103" s="15"/>
       <c r="L103" s="15"/>
@@ -4177,15 +4175,15 @@
       </c>
       <c r="H104" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73193174221430979</v>
+        <v>0.70276461146071467</v>
       </c>
       <c r="I104" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1248658875174531</v>
+        <v>3.9919575334491819</v>
       </c>
       <c r="J104" s="21">
         <f t="array" aca="1" ref="J104" ca="1">MMULT(MMULT(H104:I104,$D$9:$E$10),TRANSPOSE(H104:I104))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H104:I104))</f>
-        <v>49.495233217013663</v>
+        <v>34.505727016162083</v>
       </c>
       <c r="K104" s="15"/>
       <c r="L104" s="15"/>
@@ -4201,15 +4199,15 @@
       </c>
       <c r="H105" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.40100394467219158</v>
+        <v>1.3116632222686004</v>
       </c>
       <c r="I105" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9857150982990577</v>
+        <v>4.2913804359984962</v>
       </c>
       <c r="J105" s="21">
         <f t="array" aca="1" ref="J105" ca="1">MMULT(MMULT(H105:I105,$D$9:$E$10),TRANSPOSE(H105:I105))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H105:I105))</f>
-        <v>46.164031432262647</v>
+        <v>41.236917865922479</v>
       </c>
       <c r="K105" s="15"/>
       <c r="L105" s="15"/>
@@ -4225,15 +4223,15 @@
       </c>
       <c r="H106" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1519729405415369</v>
+        <v>2.0712393832552354</v>
       </c>
       <c r="I106" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8634293322821223</v>
+        <v>6.180860801187924</v>
       </c>
       <c r="J106" s="21">
         <f t="array" aca="1" ref="J106" ca="1">MMULT(MMULT(H106:I106,$D$9:$E$10),TRANSPOSE(H106:I106))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H106:I106))</f>
-        <v>41.466709893113972</v>
+        <v>73.430234180926362</v>
       </c>
       <c r="K106" s="15"/>
       <c r="L106" s="15"/>
@@ -4249,15 +4247,15 @@
       </c>
       <c r="H107" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0781587909422996</v>
+        <v>0.88754280432194133</v>
       </c>
       <c r="I107" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6547912566837324</v>
+        <v>6.1513219858126025</v>
       </c>
       <c r="J107" s="21">
         <f t="array" aca="1" ref="J107" ca="1">MMULT(MMULT(H107:I107,$D$9:$E$10),TRANSPOSE(H107:I107))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H107:I107))</f>
-        <v>75.302314448082242</v>
+        <v>65.894410758861383</v>
       </c>
       <c r="K107" s="15"/>
       <c r="L107" s="15"/>
@@ -4273,15 +4271,15 @@
       </c>
       <c r="H108" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15620402875918016</v>
+        <v>-1.5139254007545262</v>
       </c>
       <c r="I108" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1502452697396679</v>
+        <v>5.4767213170043645</v>
       </c>
       <c r="J108" s="21">
         <f t="array" aca="1" ref="J108" ca="1">MMULT(MMULT(H108:I108,$D$9:$E$10),TRANSPOSE(H108:I108))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H108:I108))</f>
-        <v>47.619019202312643</v>
+        <v>49.651555568933652</v>
       </c>
       <c r="K108" s="15"/>
       <c r="L108" s="15"/>
@@ -4297,15 +4295,15 @@
       </c>
       <c r="H109" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2454645565337787</v>
+        <v>3.0156727339246611E-2</v>
       </c>
       <c r="I109" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7482252255467765</v>
+        <v>4.483981803953232</v>
       </c>
       <c r="J109" s="21">
         <f t="array" aca="1" ref="J109" ca="1">MMULT(MMULT(H109:I109,$D$9:$E$10),TRANSPOSE(H109:I109))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H109:I109))</f>
-        <v>46.826119325889067</v>
+        <v>38.133399644218159</v>
       </c>
       <c r="K109" s="15"/>
       <c r="L109" s="15"/>
@@ -4321,15 +4319,15 @@
       </c>
       <c r="H110" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0005253746261313</v>
+        <v>1.8769326606495274</v>
       </c>
       <c r="I110" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.7348875293447348</v>
+        <v>6.8017781138968676</v>
       </c>
       <c r="J110" s="21">
         <f t="array" aca="1" ref="J110" ca="1">MMULT(MMULT(H110:I110,$D$9:$E$10),TRANSPOSE(H110:I110))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H110:I110))</f>
-        <v>59.831112240761854</v>
+        <v>82.624972160835398</v>
       </c>
       <c r="K110" s="15"/>
       <c r="L110" s="15"/>
@@ -4345,15 +4343,15 @@
       </c>
       <c r="H111" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.8948367722966466</v>
+        <v>-1.2814094302792014</v>
       </c>
       <c r="I111" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2973680885564658</v>
+        <v>4.2672277266918304</v>
       </c>
       <c r="J111" s="21">
         <f t="array" aca="1" ref="J111" ca="1">MMULT(MMULT(H111:I111,$D$9:$E$10),TRANSPOSE(H111:I111))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H111:I111))</f>
-        <v>33.77306737493366</v>
+        <v>33.075925215385716</v>
       </c>
       <c r="K111" s="15"/>
       <c r="L111" s="15"/>
@@ -4369,15 +4367,15 @@
       </c>
       <c r="H112" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.1443541166595934</v>
+        <v>0.38763268514195848</v>
       </c>
       <c r="I112" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9537085781414536</v>
+        <v>5.6650511159581924</v>
       </c>
       <c r="J112" s="21">
         <f t="array" aca="1" ref="J112" ca="1">MMULT(MMULT(H112:I112,$D$9:$E$10),TRANSPOSE(H112:I112))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H112:I112))</f>
-        <v>42.519255217374209</v>
+        <v>56.066165764268177</v>
       </c>
       <c r="K112" s="15"/>
       <c r="L112" s="15"/>
@@ -4393,15 +4391,15 @@
       </c>
       <c r="H113" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93078063535702737</v>
+        <v>0.56250365795823531</v>
       </c>
       <c r="I113" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5893319634112437</v>
+        <v>3.6679741550960419</v>
       </c>
       <c r="J113" s="21">
         <f t="array" aca="1" ref="J113" ca="1">MMULT(MMULT(H113:I113,$D$9:$E$10),TRANSPOSE(H113:I113))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H113:I113))</f>
-        <v>43.077990221259796</v>
+        <v>30.129852361927789</v>
       </c>
       <c r="K113" s="15"/>
       <c r="L113" s="15"/>
@@ -4417,15 +4415,15 @@
       </c>
       <c r="H114" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36933029475554197</v>
+        <v>-1.2988733518269511</v>
       </c>
       <c r="I114" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2664840628540617</v>
+        <v>4.9398626116733961</v>
       </c>
       <c r="J114" s="21">
         <f t="array" aca="1" ref="J114" ca="1">MMULT(MMULT(H114:I114,$D$9:$E$10),TRANSPOSE(H114:I114))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H114:I114))</f>
-        <v>36.513218260894789</v>
+        <v>41.952144997507617</v>
       </c>
       <c r="K114" s="15"/>
       <c r="L114" s="15"/>
@@ -4441,15 +4439,15 @@
       </c>
       <c r="H115" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.39951670046228943</v>
+        <v>-0.13359119845808412</v>
       </c>
       <c r="I115" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>3.4431326250442749</v>
+        <v>3.5498746955599731</v>
       </c>
       <c r="J115" s="21">
         <f t="array" aca="1" ref="J115" ca="1">MMULT(MMULT(H115:I115,$D$9:$E$10),TRANSPOSE(H115:I115))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H115:I115))</f>
-        <v>24.588756266382784</v>
+        <v>26.418182149348119</v>
       </c>
       <c r="K115" s="15"/>
       <c r="L115" s="15"/>
@@ -4465,15 +4463,15 @@
       </c>
       <c r="H116" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.85595164967630177</v>
+        <v>-1.7509683685662341</v>
       </c>
       <c r="I116" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.709450071306466</v>
+        <v>4.7748224791615872</v>
       </c>
       <c r="J116" s="21">
         <f t="array" aca="1" ref="J116" ca="1">MMULT(MMULT(H116:I116,$D$9:$E$10),TRANSPOSE(H116:I116))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H116:I116))</f>
-        <v>39.181518536909017</v>
+        <v>39.711204746173948</v>
       </c>
       <c r="K116" s="15"/>
       <c r="L116" s="15"/>
@@ -4489,15 +4487,15 @@
       </c>
       <c r="H117" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17041649358608557</v>
+        <v>-1.2820073739879718</v>
       </c>
       <c r="I117" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4428024278255434</v>
+        <v>6.9071938283813257</v>
       </c>
       <c r="J117" s="21">
         <f t="array" aca="1" ref="J117" ca="1">MMULT(MMULT(H117:I117,$D$9:$E$10),TRANSPOSE(H117:I117))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H117:I117))</f>
-        <v>67.821204097341322</v>
+        <v>73.13562268135</v>
       </c>
       <c r="K117" s="15"/>
       <c r="L117" s="15"/>
@@ -4513,15 +4511,15 @@
       </c>
       <c r="H118" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.2256827695464341</v>
+        <v>-0.16165718455326497</v>
       </c>
       <c r="I118" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.461314169414921</v>
+        <v>4.5306724814068682</v>
       </c>
       <c r="J118" s="21">
         <f t="array" aca="1" ref="J118" ca="1">MMULT(MMULT(H118:I118,$D$9:$E$10),TRANSPOSE(H118:I118))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H118:I118))</f>
-        <v>35.573830738805746</v>
+        <v>38.190844551062838</v>
       </c>
       <c r="K118" s="15"/>
       <c r="L118" s="15"/>
@@ -4537,15 +4535,15 @@
       </c>
       <c r="H119" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33614861121577189</v>
+        <v>-0.37487647447268219</v>
       </c>
       <c r="I119" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7866287849939493</v>
+        <v>5.2399685912866989</v>
       </c>
       <c r="J119" s="21">
         <f t="array" aca="1" ref="J119" ca="1">MMULT(MMULT(H119:I119,$D$9:$E$10),TRANSPOSE(H119:I119))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H119:I119))</f>
-        <v>43.179771987778054</v>
+        <v>47.433048150512931</v>
       </c>
       <c r="K119" s="15"/>
       <c r="L119" s="15"/>
@@ -4561,15 +4559,15 @@
       </c>
       <c r="H120" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>9.6521619054257421E-2</v>
+        <v>1.2727101854674352</v>
       </c>
       <c r="I120" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8045782641969579</v>
+        <v>5.8811501313156676</v>
       </c>
       <c r="J120" s="21">
         <f t="array" aca="1" ref="J120" ca="1">MMULT(MMULT(H120:I120,$D$9:$E$10),TRANSPOSE(H120:I120))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H120:I120))</f>
-        <v>42.601166633689317</v>
+        <v>63.55044916493182</v>
       </c>
       <c r="K120" s="15"/>
       <c r="L120" s="15"/>
@@ -4585,15 +4583,15 @@
       </c>
       <c r="H121" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0505939248742013</v>
+        <v>0.86604082245981406</v>
       </c>
       <c r="I121" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8920609797420491</v>
+        <v>4.8568574912795208</v>
       </c>
       <c r="J121" s="21">
         <f t="array" aca="1" ref="J121" ca="1">MMULT(MMULT(H121:I121,$D$9:$E$10),TRANSPOSE(H121:I121))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H121:I121))</f>
-        <v>79.324277837056314</v>
+        <v>46.364643829262398</v>
       </c>
       <c r="K121" s="15"/>
       <c r="L121" s="15"/>
@@ -4609,15 +4607,15 @@
       </c>
       <c r="H122" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.0607307133675632</v>
+        <v>0.6071824499790025</v>
       </c>
       <c r="I122" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.047535342522691</v>
+        <v>6.3735037829312047</v>
       </c>
       <c r="J122" s="21">
         <f t="array" aca="1" ref="J122" ca="1">MMULT(MMULT(H122:I122,$D$9:$E$10),TRANSPOSE(H122:I122))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H122:I122))</f>
-        <v>43.610711910284991</v>
+        <v>68.305783480262704</v>
       </c>
       <c r="K122" s="15"/>
       <c r="L122" s="15"/>
@@ -4633,15 +4631,15 @@
       </c>
       <c r="H123" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.146800666296933</v>
+        <v>1.3609951456584195</v>
       </c>
       <c r="I123" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8381067456302747</v>
+        <v>5.2792628875078789</v>
       </c>
       <c r="J123" s="21">
         <f t="array" aca="1" ref="J123" ca="1">MMULT(MMULT(H123:I123,$D$9:$E$10),TRANSPOSE(H123:I123))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H123:I123))</f>
-        <v>43.221656299150283</v>
+        <v>54.92296140893059</v>
       </c>
       <c r="K123" s="15"/>
       <c r="L123" s="15"/>
@@ -4657,15 +4655,15 @@
       </c>
       <c r="H124" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9690392642781442</v>
+        <v>0.38646552289344033</v>
       </c>
       <c r="I124" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8904352499206567</v>
+        <v>3.9557734813036731</v>
       </c>
       <c r="J124" s="21">
         <f t="array" aca="1" ref="J124" ca="1">MMULT(MMULT(H124:I124,$D$9:$E$10),TRANSPOSE(H124:I124))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H124:I124))</f>
-        <v>40.481460850611278</v>
+        <v>32.779989929665696</v>
       </c>
       <c r="K124" s="15"/>
       <c r="L124" s="15"/>
@@ -4681,15 +4679,15 @@
       </c>
       <c r="H125" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42247615839085045</v>
+        <v>0.77299956509738577</v>
       </c>
       <c r="I125" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>6.7701280740376983</v>
+        <v>5.6737289755840017</v>
       </c>
       <c r="J125" s="21">
         <f t="array" aca="1" ref="J125" ca="1">MMULT(MMULT(H125:I125,$D$9:$E$10),TRANSPOSE(H125:I125))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H125:I125))</f>
-        <v>74.36106101460544</v>
+        <v>57.802643413650394</v>
       </c>
       <c r="K125" s="15"/>
       <c r="L125" s="15"/>
@@ -4705,15 +4703,15 @@
       </c>
       <c r="H126" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9166392510396155</v>
+        <v>0.32174637577077869</v>
       </c>
       <c r="I126" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7627142022792706</v>
+        <v>2.5151720382310385</v>
       </c>
       <c r="J126" s="21">
         <f t="array" aca="1" ref="J126" ca="1">MMULT(MMULT(H126:I126,$D$9:$E$10),TRANSPOSE(H126:I126))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H126:I126))</f>
-        <v>51.157727153454296</v>
+        <v>17.455538392457399</v>
       </c>
       <c r="K126" s="15"/>
       <c r="L126" s="15"/>
@@ -4729,15 +4727,15 @@
       </c>
       <c r="H127" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.31333768859012118</v>
+        <v>-0.27982795783367598</v>
       </c>
       <c r="I127" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3036109454337872</v>
+        <v>4.4027599415617864</v>
       </c>
       <c r="J127" s="21">
         <f t="array" aca="1" ref="J127" ca="1">MMULT(MMULT(H127:I127,$D$9:$E$10),TRANSPOSE(H127:I127))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H127:I127))</f>
-        <v>48.500900283580862</v>
+        <v>36.234154681752628</v>
       </c>
       <c r="K127" s="15"/>
       <c r="L127" s="15"/>
@@ -4753,15 +4751,15 @@
       </c>
       <c r="H128" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.073179449943706</v>
+        <v>1.3003208640681685</v>
       </c>
       <c r="I128" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5376245088388965</v>
+        <v>6.1778644504585269</v>
       </c>
       <c r="J128" s="21">
         <f t="array" aca="1" ref="J128" ca="1">MMULT(MMULT(H128:I128,$D$9:$E$10),TRANSPOSE(H128:I128))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H128:I128))</f>
-        <v>50.747959018199168</v>
+        <v>68.469263911808838</v>
       </c>
       <c r="K128" s="15"/>
       <c r="L128" s="15"/>
@@ -4777,15 +4775,15 @@
       </c>
       <c r="H129" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.0728633790180695</v>
+        <v>0.55061014181000656</v>
       </c>
       <c r="I129" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5290230938347609</v>
+        <v>5.9724524085522894</v>
       </c>
       <c r="J129" s="21">
         <f t="array" aca="1" ref="J129" ca="1">MMULT(MMULT(H129:I129,$D$9:$E$10),TRANSPOSE(H129:I129))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H129:I129))</f>
-        <v>36.560588252811492</v>
+        <v>61.514999360325263</v>
       </c>
       <c r="K129" s="15"/>
       <c r="L129" s="15"/>
@@ -4801,15 +4799,15 @@
       </c>
       <c r="H130" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16866288120276493</v>
+        <v>0.70341454989735175</v>
       </c>
       <c r="I130" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4305729393429418</v>
+        <v>6.7187140122281201</v>
       </c>
       <c r="J130" s="21">
         <f t="array" aca="1" ref="J130" ca="1">MMULT(MMULT(H130:I130,$D$9:$E$10),TRANSPOSE(H130:I130))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H130:I130))</f>
-        <v>37.886704139313636</v>
+        <v>74.621009705722315</v>
       </c>
       <c r="K130" s="15"/>
       <c r="L130" s="15"/>
@@ -4825,15 +4823,15 @@
       </c>
       <c r="H131" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76318878060733808</v>
+        <v>-1.3618978597154696</v>
       </c>
       <c r="I131" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4022081871203236</v>
+        <v>3.8353185276358417</v>
       </c>
       <c r="J131" s="21">
         <f t="array" aca="1" ref="J131" ca="1">MMULT(MMULT(H131:I131,$D$9:$E$10),TRANSPOSE(H131:I131))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H131:I131))</f>
-        <v>69.469125876378712</v>
+        <v>27.820014520121298</v>
       </c>
       <c r="K131" s="15"/>
       <c r="L131" s="15"/>
@@ -4849,15 +4847,15 @@
       </c>
       <c r="H132" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.80532035900988774</v>
+        <v>-0.82750375274554178</v>
       </c>
       <c r="I132" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4406264761821843</v>
+        <v>6.230968935210198</v>
       </c>
       <c r="J132" s="21">
         <f t="array" aca="1" ref="J132" ca="1">MMULT(MMULT(H132:I132,$D$9:$E$10),TRANSPOSE(H132:I132))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H132:I132))</f>
-        <v>65.476755114033821</v>
+        <v>61.95110081496663</v>
       </c>
       <c r="K132" s="15"/>
       <c r="L132" s="15"/>
@@ -4873,15 +4871,15 @@
       </c>
       <c r="H133" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.13708472113673548</v>
+        <v>0.82330132310736848</v>
       </c>
       <c r="I133" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7490240711634755</v>
+        <v>4.469285483745761</v>
       </c>
       <c r="J133" s="21">
         <f t="array" aca="1" ref="J133" ca="1">MMULT(MMULT(H133:I133,$D$9:$E$10),TRANSPOSE(H133:I133))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H133:I133))</f>
-        <v>28.658815828175992</v>
+        <v>40.999383708156074</v>
       </c>
       <c r="K133" s="15"/>
       <c r="L133" s="15"/>
@@ -4897,15 +4895,15 @@
       </c>
       <c r="H134" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56728723584163199</v>
+        <v>-0.71375150400882681</v>
       </c>
       <c r="I134" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1063183770748743</v>
+        <v>5.4957561342471788</v>
       </c>
       <c r="J134" s="21">
         <f t="array" aca="1" ref="J134" ca="1">MMULT(MMULT(H134:I134,$D$9:$E$10),TRANSPOSE(H134:I134))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H134:I134))</f>
-        <v>48.523437391825809</v>
+        <v>50.55454672155259</v>
       </c>
       <c r="K134" s="15"/>
       <c r="L134" s="15"/>
@@ -4921,15 +4919,15 @@
       </c>
       <c r="H135" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49213920091467506</v>
+        <v>-1.0105159839513316</v>
       </c>
       <c r="I135" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8922727008213394</v>
+        <v>5.8188035963088129</v>
       </c>
       <c r="J135" s="21">
         <f t="array" aca="1" ref="J135" ca="1">MMULT(MMULT(H135:I135,$D$9:$E$10),TRANSPOSE(H135:I135))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H135:I135))</f>
-        <v>21.652950775022681</v>
+        <v>55.123284279618758</v>
       </c>
       <c r="K135" s="15"/>
       <c r="L135" s="15"/>
@@ -4945,15 +4943,15 @@
       </c>
       <c r="H136" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.17450223591169917</v>
+        <v>0.85599278960966041</v>
       </c>
       <c r="I136" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.018769880396527</v>
+        <v>6.3040036056564848</v>
       </c>
       <c r="J136" s="21">
         <f t="array" aca="1" ref="J136" ca="1">MMULT(MMULT(H136:I136,$D$9:$E$10),TRANSPOSE(H136:I136))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H136:I136))</f>
-        <v>31.732535195771508</v>
+        <v>68.257177907448607</v>
       </c>
       <c r="K136" s="15"/>
       <c r="L136" s="15"/>
@@ -4969,15 +4967,15 @@
       </c>
       <c r="H137" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.2145085298484803</v>
+        <v>1.2073663022045364</v>
       </c>
       <c r="I137" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8767657027311255</v>
+        <v>4.5190655431533493</v>
       </c>
       <c r="J137" s="21">
         <f t="array" aca="1" ref="J137" ca="1">MMULT(MMULT(H137:I137,$D$9:$E$10),TRANSPOSE(H137:I137))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H137:I137))</f>
-        <v>41.121411909788385</v>
+        <v>43.578047850241937</v>
       </c>
       <c r="K137" s="15"/>
       <c r="L137" s="15"/>
@@ -4993,15 +4991,15 @@
       </c>
       <c r="H138" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.8485822774053227</v>
+        <v>-1.3508139093415854</v>
       </c>
       <c r="I138" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0830393068829247</v>
+        <v>4.9354008587185545</v>
       </c>
       <c r="J138" s="21">
         <f t="array" aca="1" ref="J138" ca="1">MMULT(MMULT(H138:I138,$D$9:$E$10),TRANSPOSE(H138:I138))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H138:I138))</f>
-        <v>44.040955426969617</v>
+        <v>41.872041560760003</v>
       </c>
       <c r="K138" s="15"/>
       <c r="L138" s="15"/>

--- a/examples/quadratic_programming/quadratic_programming.xlsx
+++ b/examples/quadratic_programming/quadratic_programming.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">        QUADRATIC PROGRAMMING</t>
   </si>
   <si>
-    <t>D:\Users\Tandem Algorithms\My Development\GitHub\tandem-algorithms\examples\quadratic_programming\quadratic_programming.py</t>
+    <t>D:\Users\Tandem Algorithms\MyDevelopment\GitHub\tandem-algorithms\examples\quadratic_programming\quadratic_programming.py</t>
   </si>
 </sst>
 </file>
@@ -759,304 +759,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>56.459535777361936</c:v>
+                  <c:v>56.008828797084405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.576386154518822</c:v>
+                  <c:v>45.381479386337638</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.81716159161585</c:v>
+                  <c:v>44.424726729434369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.877838742161302</c:v>
+                  <c:v>51.262389188975575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.956306037377473</c:v>
+                  <c:v>51.431510461872634</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.183901609692441</c:v>
+                  <c:v>47.720126158627323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.843776263513767</c:v>
+                  <c:v>21.333376405836333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.804968644516229</c:v>
+                  <c:v>62.951283970334188</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.864243395000457</c:v>
+                  <c:v>23.296615776461632</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.331331088820335</c:v>
+                  <c:v>36.184129718761113</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.261745105673867</c:v>
+                  <c:v>46.676069960702364</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>71.747642828598529</c:v>
+                  <c:v>32.501240066497857</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.575455269829597</c:v>
+                  <c:v>39.058126928388482</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.904979570312236</c:v>
+                  <c:v>44.885475298981802</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.736006056710494</c:v>
+                  <c:v>45.265932557850711</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>56.420886591857837</c:v>
+                  <c:v>34.821738647900801</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.27012332608539</c:v>
+                  <c:v>69.426460306760433</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.206527180646333</c:v>
+                  <c:v>57.295353010393796</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.905993614930068</c:v>
+                  <c:v>36.903846106165446</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>58.911468290007974</c:v>
+                  <c:v>54.298180039482446</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.8235471708229518</c:v>
+                  <c:v>21.531957197585491</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48.873050142970783</c:v>
+                  <c:v>39.8820020274526</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44.461709995966494</c:v>
+                  <c:v>22.152338276567402</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>66.534734008059402</c:v>
+                  <c:v>31.392481709914676</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63.542281557521882</c:v>
+                  <c:v>24.333456824714062</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.28707756819982</c:v>
+                  <c:v>64.695370278169662</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>38.376724892009406</c:v>
+                  <c:v>45.090752371367614</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21.674032866907226</c:v>
+                  <c:v>89.640778539473573</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>47.45258744957416</c:v>
+                  <c:v>66.44438856189737</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>55.645593439246639</c:v>
+                  <c:v>36.998767166758086</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.917078483313915</c:v>
+                  <c:v>40.934737318549487</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>57.221490584418902</c:v>
+                  <c:v>41.24408730785278</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41.667165128690165</c:v>
+                  <c:v>57.597126790702845</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45.637418392978589</c:v>
+                  <c:v>53.128188263532671</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45.365356182290284</c:v>
+                  <c:v>27.505595296445215</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>47.902049745008171</c:v>
+                  <c:v>49.070276929424196</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67.539680932103806</c:v>
+                  <c:v>51.936332330367826</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44.287343174134378</c:v>
+                  <c:v>45.041587062707805</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>33.671091007576365</c:v>
+                  <c:v>31.00151060818559</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>53.48364264823627</c:v>
+                  <c:v>63.376859216590766</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>53.433933625273184</c:v>
+                  <c:v>50.548892877987569</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>54.900861129569009</c:v>
+                  <c:v>45.643436213174333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.87931546152565</c:v>
+                  <c:v>44.168670646344296</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>60.630452543521798</c:v>
+                  <c:v>72.63186543601681</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>56.110694944982711</c:v>
+                  <c:v>64.714684177466452</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>28.98248295050854</c:v>
+                  <c:v>45.62400435232459</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37.765316773753995</c:v>
+                  <c:v>49.114256426963777</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>57.577132893906011</c:v>
+                  <c:v>86.803786454305055</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>62.15544139747842</c:v>
+                  <c:v>32.331269379550037</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>36.188787069628155</c:v>
+                  <c:v>51.384701921096656</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>75.175018325352383</c:v>
+                  <c:v>24.644556215905958</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>61.943373190344957</c:v>
+                  <c:v>59.870842096666195</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>55.822163511912713</c:v>
+                  <c:v>53.418059008611372</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>32.790811748555782</c:v>
+                  <c:v>49.834688111467415</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>38.927578350388153</c:v>
+                  <c:v>63.315619501939878</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>67.880191589152233</c:v>
+                  <c:v>57.11403506720486</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>72.78902085968771</c:v>
+                  <c:v>46.715247861297385</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>26.120115254448525</c:v>
+                  <c:v>63.599525093629609</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>31.778993271446595</c:v>
+                  <c:v>53.458678451758971</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59.572863249382983</c:v>
+                  <c:v>39.049583558321771</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>39.389240910908853</c:v>
+                  <c:v>79.958270594018842</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>40.888036917107726</c:v>
+                  <c:v>45.206444528996307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>39.960563104658391</c:v>
+                  <c:v>58.291123314101782</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>41.052285273041193</c:v>
+                  <c:v>59.039092491788807</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>39.965975128578123</c:v>
+                  <c:v>37.021985299939686</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>34.505727016162083</c:v>
+                  <c:v>54.580539714333199</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>41.236917865922479</c:v>
+                  <c:v>84.987986348431633</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>73.430234180926362</c:v>
+                  <c:v>30.754491820268239</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>65.894410758861383</c:v>
+                  <c:v>65.129610379732199</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>49.651555568933652</c:v>
+                  <c:v>29.103315394592229</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>38.133399644218159</c:v>
+                  <c:v>57.298006887906048</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>82.624972160835398</c:v>
+                  <c:v>58.382646554323927</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>33.075925215385716</c:v>
+                  <c:v>47.453636846156215</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>56.066165764268177</c:v>
+                  <c:v>34.896082095808694</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>30.129852361927789</c:v>
+                  <c:v>22.236122498349218</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>41.952144997507617</c:v>
+                  <c:v>88.28452981466279</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>26.418182149348119</c:v>
+                  <c:v>54.298527643723233</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>39.711204746173948</c:v>
+                  <c:v>60.053767416197054</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>73.13562268135</c:v>
+                  <c:v>59.03163962966903</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>38.190844551062838</c:v>
+                  <c:v>52.389851965201956</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>47.433048150512931</c:v>
+                  <c:v>65.120259158147633</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>63.55044916493182</c:v>
+                  <c:v>49.282236986274768</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>46.364643829262398</c:v>
+                  <c:v>36.950184182787602</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>68.305783480262704</c:v>
+                  <c:v>53.883376229950315</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>54.92296140893059</c:v>
+                  <c:v>51.417134881887947</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>32.779989929665696</c:v>
+                  <c:v>50.437058874109866</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>57.802643413650394</c:v>
+                  <c:v>56.036919033450197</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>17.455538392457399</c:v>
+                  <c:v>44.609372794257467</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>36.234154681752628</c:v>
+                  <c:v>41.874093904162464</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>68.469263911808838</c:v>
+                  <c:v>54.708993918886435</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>61.514999360325263</c:v>
+                  <c:v>26.201134194883956</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>74.621009705722315</c:v>
+                  <c:v>43.856922459990102</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>27.820014520121298</c:v>
+                  <c:v>38.927990495307114</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>61.95110081496663</c:v>
+                  <c:v>31.632371205225379</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>40.999383708156074</c:v>
+                  <c:v>55.286962157311024</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>50.55454672155259</c:v>
+                  <c:v>28.845904160917499</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>55.123284279618758</c:v>
+                  <c:v>65.820170572775908</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>68.257177907448607</c:v>
+                  <c:v>47.565776073448902</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43.578047850241937</c:v>
+                  <c:v>62.621752445682169</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>41.872041560760003</c:v>
+                  <c:v>33.171770761944238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1099,7 +1099,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32.499999997185633</c:v>
+                  <c:v>32.499999995743217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,11 +1114,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="21138240"/>
-        <c:axId val="21138816"/>
+        <c:axId val="134269184"/>
+        <c:axId val="134269760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="21138240"/>
+        <c:axId val="134269184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1148,12 +1148,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21138816"/>
+        <c:crossAx val="134269760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21138816"/>
+        <c:axId val="134269760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21138240"/>
+        <c:crossAx val="134269184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1257,9 +1257,9 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>13446</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3594848" cy="966931"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="2227732" cy="966931"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -1268,7 +1268,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4944033" y="1156446"/>
-              <a:ext cx="3594848" cy="966931"/>
+              <a:ext cx="2227732" cy="966931"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1506,7 +1506,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -1515,7 +1515,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4944033" y="1156446"/>
-              <a:ext cx="3594848" cy="966931"/>
+              <a:ext cx="2227732" cy="966931"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1547,7 +1547,7 @@
                 <a:rPr lang="en-GB" sz="1500" b="0" i="0">
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>min_</a:t>
+                <a:t>min┬</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-GB" sz="1500" b="1" i="0">
@@ -1929,7 +1929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V336"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1999,7 +2001,7 @@
       </c>
       <c r="D5" s="7" t="str">
         <f>_xll.tdmPyScript(D3,D7)</f>
-        <v>[quadratic_programming.xlsx]quadratic_programming!$D$5:0</v>
+        <v>[quadratic_programming.xlsx]quadratic_programming!$D$5:2</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2029,7 +2031,7 @@
       </c>
       <c r="D7" s="7" t="str">
         <f>_xll.tdmGrid(B9:F30)</f>
-        <v>[quadratic_programming.xlsx]quadratic_programming!$D$7:0</v>
+        <v>[quadratic_programming.xlsx]quadratic_programming!$D$7:4</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2110,7 +2112,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -2283,7 +2285,7 @@
       <c r="H21" s="25"/>
       <c r="I21" s="30">
         <f t="array" ref="I21:I25">MMULT(D15:E19,E39:E40)</f>
-        <v>-4.6906016718132971E-10</v>
+        <v>-6.0811329794582526E-10</v>
       </c>
       <c r="J21" s="31" t="b">
         <f>I21&lt;D21</f>
@@ -2306,7 +2308,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="30">
-        <v>-4.9999999995309397</v>
+        <v>-4.9999999993918873</v>
       </c>
       <c r="J22" s="32" t="b">
         <f t="shared" ref="J22:J25" si="0">I22&lt;D22</f>
@@ -2329,7 +2331,7 @@
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="30">
-        <v>-14.999999999061879</v>
+        <v>-14.999999998783775</v>
       </c>
       <c r="J23" s="32" t="b">
         <f t="shared" si="0"/>
@@ -2352,7 +2354,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="30">
-        <v>24.99999999774851</v>
+        <v>24.999999997081062</v>
       </c>
       <c r="J24" s="32" t="b">
         <f t="shared" si="0"/>
@@ -2375,7 +2377,7 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="30">
-        <v>19.999999999530939</v>
+        <v>19.999999999391889</v>
       </c>
       <c r="J25" s="33" t="b">
         <f t="shared" si="0"/>
@@ -2468,7 +2470,7 @@
       <c r="H30" s="25"/>
       <c r="I30" s="30">
         <f>MMULT(D27:E27,E39:E40)</f>
-        <v>5</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="J30" s="34" t="b">
         <f>D30=I30</f>
@@ -2585,7 +2587,7 @@
         <v>x</v>
       </c>
       <c r="E39" s="19">
-        <v>4.6906016718132971E-10</v>
+        <v>6.0811329794582526E-10</v>
       </c>
       <c r="F39" s="2" t="str">
         <v/>
@@ -2595,15 +2597,15 @@
       </c>
       <c r="H39" s="19">
         <f t="shared" ref="H39:H70" ca="1" si="1">_xlfn.NORM.INV(RAND(),$E$39,1)</f>
-        <v>2.1332134046605282</v>
+        <v>-0.38619005142313267</v>
       </c>
       <c r="I39" s="19">
         <f t="shared" ref="I39:I70" ca="1" si="2">_xlfn.NORM.INV(RAND(),$E$40,1)</f>
-        <v>5.0362842561651098</v>
+        <v>5.7866594984057489</v>
       </c>
       <c r="J39" s="21">
         <f t="array" aca="1" ref="J39" ca="1">MMULT(MMULT(H39:I39,$D$9:$E$10),TRANSPOSE(H39:I39))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H39:I39))</f>
-        <v>56.459535777361936</v>
+        <v>56.008828797084405</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -2615,7 +2617,7 @@
         <v/>
       </c>
       <c r="E40" s="19">
-        <v>4.9999999995309397</v>
+        <v>4.9999999993918873</v>
       </c>
       <c r="F40" s="2" t="str">
         <v/>
@@ -2625,15 +2627,15 @@
       </c>
       <c r="H40" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10182544350564868</v>
+        <v>-0.34036855958584722</v>
       </c>
       <c r="I40" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4708186548604996</v>
+        <v>5.0672742800286725</v>
       </c>
       <c r="J40" s="21">
         <f t="array" aca="1" ref="J40" ca="1">MMULT(MMULT(H40:I40,$D$9:$E$10),TRANSPOSE(H40:I40))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H40:I40))</f>
-        <v>37.576386154518822</v>
+        <v>45.381479386337638</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
@@ -2651,15 +2653,15 @@
       </c>
       <c r="H41" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0855106606878318</v>
+        <v>-0.80323391294555169</v>
       </c>
       <c r="I41" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.100104498589328</v>
+        <v>5.0275180424115353</v>
       </c>
       <c r="J41" s="21">
         <f t="array" aca="1" ref="J41" ca="1">MMULT(MMULT(H41:I41,$D$9:$E$10),TRANSPOSE(H41:I41))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H41:I41))</f>
-        <v>43.81716159161585</v>
+        <v>44.424726729434369</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
@@ -2667,7 +2669,7 @@
         <v>solution</v>
       </c>
       <c r="E42" s="10">
-        <v>32.499999997185633</v>
+        <v>32.499999995743217</v>
       </c>
       <c r="F42" s="2" t="str">
         <v/>
@@ -2677,15 +2679,15 @@
       </c>
       <c r="H42" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49438370914412105</v>
+        <v>1.7172835138152467</v>
       </c>
       <c r="I42" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9287665127631599</v>
+        <v>4.9913346003837811</v>
       </c>
       <c r="J42" s="21">
         <f t="array" aca="1" ref="J42" ca="1">MMULT(MMULT(H42:I42,$D$9:$E$10),TRANSPOSE(H42:I42))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H42:I42))</f>
-        <v>32.877838742161302</v>
+        <v>51.262389188975575</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.2">
@@ -2703,15 +2705,15 @@
       </c>
       <c r="H43" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3925090687905788E-2</v>
+        <v>1.1301632507574708</v>
       </c>
       <c r="I43" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2518918653355842</v>
+        <v>5.2037431233349096</v>
       </c>
       <c r="J43" s="21">
         <f t="array" aca="1" ref="J43" ca="1">MMULT(MMULT(H43:I43,$D$9:$E$10),TRANSPOSE(H43:I43))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H43:I43))</f>
-        <v>34.956306037377473</v>
+        <v>51.431510461872634</v>
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
@@ -2729,15 +2731,15 @@
       </c>
       <c r="H44" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9867409650255528</v>
+        <v>-1.8255721440250217</v>
       </c>
       <c r="I44" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0230008345097481</v>
+        <v>5.2137754881641039</v>
       </c>
       <c r="J44" s="21">
         <f t="array" aca="1" ref="J44" ca="1">MMULT(MMULT(H44:I44,$D$9:$E$10),TRANSPOSE(H44:I44))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H44:I44))</f>
-        <v>42.183901609692441</v>
+        <v>47.720126158627323</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
@@ -2748,7 +2750,7 @@
     <row r="45" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D45" s="30">
         <f t="array" ref="D45">0.5*MMULT(MMULT(TRANSPOSE(E39:E40),D9:E10),E39:E40)+MMULT(TRANSPOSE(D12:D13),E39:E40)</f>
-        <v>32.49999999718564</v>
+        <v>32.49999999574321</v>
       </c>
       <c r="E45" s="34" t="b">
         <f>E42=D45</f>
@@ -2759,15 +2761,15 @@
       </c>
       <c r="H45" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37252949115473205</v>
+        <v>-0.50917106252965449</v>
       </c>
       <c r="I45" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.455696450920569</v>
+        <v>3.1080782452873668</v>
       </c>
       <c r="J45" s="21">
         <f t="array" aca="1" ref="J45" ca="1">MMULT(MMULT(H45:I45,$D$9:$E$10),TRANSPOSE(H45:I45))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H45:I45))</f>
-        <v>52.843776263513767</v>
+        <v>21.333376405836333</v>
       </c>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
@@ -2783,15 +2785,15 @@
       </c>
       <c r="H46" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.37845633515784405</v>
+        <v>-0.69174809139855253</v>
       </c>
       <c r="I46" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8135280555243436</v>
+        <v>6.2374914100821837</v>
       </c>
       <c r="J46" s="21">
         <f t="array" aca="1" ref="J46" ca="1">MMULT(MMULT(H46:I46,$D$9:$E$10),TRANSPOSE(H46:I46))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H46:I46))</f>
-        <v>28.804968644516229</v>
+        <v>62.951283970334188</v>
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
@@ -2807,15 +2809,15 @@
       </c>
       <c r="H47" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20047016821672295</v>
+        <v>-0.39392101983159689</v>
       </c>
       <c r="I47" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>6.320014699626765</v>
+        <v>3.2848163682629181</v>
       </c>
       <c r="J47" s="21">
         <f t="array" aca="1" ref="J47" ca="1">MMULT(MMULT(H47:I47,$D$9:$E$10),TRANSPOSE(H47:I47))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H47:I47))</f>
-        <v>65.864243395000457</v>
+        <v>23.296615776461632</v>
       </c>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
@@ -2831,15 +2833,15 @@
       </c>
       <c r="H48" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24533696295076049</v>
+        <v>-0.24063132026806633</v>
       </c>
       <c r="I48" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0715734990370223</v>
+        <v>4.37240056234723</v>
       </c>
       <c r="J48" s="21">
         <f t="array" aca="1" ref="J48" ca="1">MMULT(MMULT(H48:I48,$D$9:$E$10),TRANSPOSE(H48:I48))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H48:I48))</f>
-        <v>45.331331088820335</v>
+        <v>36.184129718761113</v>
       </c>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
@@ -2855,15 +2857,15 @@
       </c>
       <c r="H49" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2652140260329376</v>
+        <v>0.4646508359350025</v>
       </c>
       <c r="I49" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1534816564205812</v>
+        <v>5.0378169832340243</v>
       </c>
       <c r="J49" s="21">
         <f t="array" aca="1" ref="J49" ca="1">MMULT(MMULT(H49:I49,$D$9:$E$10),TRANSPOSE(H49:I49))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H49:I49))</f>
-        <v>39.261745105673867</v>
+        <v>46.676069960702364</v>
       </c>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
@@ -2879,15 +2881,15 @@
       </c>
       <c r="H50" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4626085223530696</v>
+        <v>-0.17268548258305577</v>
       </c>
       <c r="I50" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8927420157492385</v>
+        <v>4.0676841344757744</v>
       </c>
       <c r="J50" s="21">
         <f t="array" aca="1" ref="J50" ca="1">MMULT(MMULT(H50:I50,$D$9:$E$10),TRANSPOSE(H50:I50))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H50:I50))</f>
-        <v>71.747642828598529</v>
+        <v>32.501240066497857</v>
       </c>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
@@ -2903,15 +2905,15 @@
       </c>
       <c r="H51" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91650738328700121</v>
+        <v>-2.0260885956373267</v>
       </c>
       <c r="I51" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.927188992394318</v>
+        <v>4.5578402788030372</v>
       </c>
       <c r="J51" s="21">
         <f t="array" aca="1" ref="J51" ca="1">MMULT(MMULT(H51:I51,$D$9:$E$10),TRANSPOSE(H51:I51))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H51:I51))</f>
-        <v>47.575455269829597</v>
+        <v>39.058126928388482</v>
       </c>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
@@ -2927,15 +2929,15 @@
       </c>
       <c r="H52" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1767175857299572</v>
+        <v>0.35718303597701656</v>
       </c>
       <c r="I52" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5531760240931742</v>
+        <v>4.9313439898650255</v>
       </c>
       <c r="J52" s="21">
         <f t="array" aca="1" ref="J52" ca="1">MMULT(MMULT(H52:I52,$D$9:$E$10),TRANSPOSE(H52:I52))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H52:I52))</f>
-        <v>50.904979570312236</v>
+        <v>44.885475298981802</v>
       </c>
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
@@ -2951,15 +2953,15 @@
       </c>
       <c r="H53" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3917539537775444E-2</v>
+        <v>1.5657770099136261</v>
       </c>
       <c r="I53" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1024948387073357</v>
+        <v>4.609290498476323</v>
       </c>
       <c r="J53" s="21">
         <f t="array" aca="1" ref="J53" ca="1">MMULT(MMULT(H53:I53,$D$9:$E$10),TRANSPOSE(H53:I53))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H53:I53))</f>
-        <v>46.736006056710494</v>
+        <v>45.265932557850711</v>
       </c>
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
@@ -2975,15 +2977,15 @@
       </c>
       <c r="H54" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6503470279355119</v>
+        <v>-2.5558538961199551</v>
       </c>
       <c r="I54" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9150667946043765</v>
+        <v>4.1156403836253448</v>
       </c>
       <c r="J54" s="21">
         <f t="array" aca="1" ref="J54" ca="1">MMULT(MMULT(H54:I54,$D$9:$E$10),TRANSPOSE(H54:I54))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H54:I54))</f>
-        <v>56.420886591857837</v>
+        <v>34.821738647900801</v>
       </c>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
@@ -2999,15 +3001,15 @@
       </c>
       <c r="H55" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.982092411348372</v>
+        <v>-0.58141753130346674</v>
       </c>
       <c r="I55" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6853782117207432</v>
+        <v>6.616916445205927</v>
       </c>
       <c r="J55" s="21">
         <f t="array" aca="1" ref="J55" ca="1">MMULT(MMULT(H55:I55,$D$9:$E$10),TRANSPOSE(H55:I55))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H55:I55))</f>
-        <v>28.27012332608539</v>
+        <v>69.426460306760433</v>
       </c>
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
@@ -3023,15 +3025,15 @@
       </c>
       <c r="H56" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0866600985506603</v>
+        <v>0.77798109403729387</v>
       </c>
       <c r="I56" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1453817387703609</v>
+        <v>5.6898723162117424</v>
       </c>
       <c r="J56" s="21">
         <f t="array" aca="1" ref="J56" ca="1">MMULT(MMULT(H56:I56,$D$9:$E$10),TRANSPOSE(H56:I56))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H56:I56))</f>
-        <v>38.206527180646333</v>
+        <v>57.295353010393796</v>
       </c>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
@@ -3047,15 +3049,15 @@
       </c>
       <c r="H57" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.39940945102736886</v>
+        <v>0.24518155521583412</v>
       </c>
       <c r="I57" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7040804036379358</v>
+        <v>4.3524301649617305</v>
       </c>
       <c r="J57" s="21">
         <f t="array" aca="1" ref="J57" ca="1">MMULT(MMULT(H57:I57,$D$9:$E$10),TRANSPOSE(H57:I57))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H57:I57))</f>
-        <v>39.905993614930068</v>
+        <v>36.903846106165446</v>
       </c>
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
@@ -3071,15 +3073,15 @@
       </c>
       <c r="H58" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.34647960993523658</v>
+        <v>1.4105907997825646</v>
       </c>
       <c r="I58" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9894216936967855</v>
+        <v>5.3134965669976291</v>
       </c>
       <c r="J58" s="21">
         <f t="array" aca="1" ref="J58" ca="1">MMULT(MMULT(H58:I58,$D$9:$E$10),TRANSPOSE(H58:I58))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H58:I58))</f>
-        <v>58.911468290007974</v>
+        <v>54.298180039482446</v>
       </c>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
@@ -3095,15 +3097,15 @@
       </c>
       <c r="H59" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44758626216221747</v>
+        <v>-0.76085140357376213</v>
       </c>
       <c r="I59" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3586388496323853</v>
+        <v>3.1453634610601466</v>
       </c>
       <c r="J59" s="21">
         <f t="array" aca="1" ref="J59" ca="1">MMULT(MMULT(H59:I59,$D$9:$E$10),TRANSPOSE(H59:I59))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H59:I59))</f>
-        <v>8.8235471708229518</v>
+        <v>21.531957197585491</v>
       </c>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
@@ -3119,15 +3121,15 @@
       </c>
       <c r="H60" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.11426268891234251</v>
+        <v>-0.83458801287513662</v>
       </c>
       <c r="I60" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2940237350608017</v>
+        <v>4.6973607415136307</v>
       </c>
       <c r="J60" s="21">
         <f t="array" aca="1" ref="J60" ca="1">MMULT(MMULT(H60:I60,$D$9:$E$10),TRANSPOSE(H60:I60))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H60:I60))</f>
-        <v>48.873050142970783</v>
+        <v>39.8820020274526</v>
       </c>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
@@ -3143,15 +3145,15 @@
       </c>
       <c r="H61" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22508228495966467</v>
+        <v>-0.42605801805523202</v>
       </c>
       <c r="I61" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9091100082488799</v>
+        <v>3.1790857183414829</v>
       </c>
       <c r="J61" s="21">
         <f t="array" aca="1" ref="J61" ca="1">MMULT(MMULT(H61:I61,$D$9:$E$10),TRANSPOSE(H61:I61))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H61:I61))</f>
-        <v>44.461709995966494</v>
+        <v>22.152338276567402</v>
       </c>
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
@@ -3167,15 +3169,15 @@
       </c>
       <c r="H62" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7161599596135672E-2</v>
+        <v>-1.0185288155908345</v>
       </c>
       <c r="I62" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>6.405048353362595</v>
+        <v>4.032589692073171</v>
       </c>
       <c r="J62" s="21">
         <f t="array" aca="1" ref="J62" ca="1">MMULT(MMULT(H62:I62,$D$9:$E$10),TRANSPOSE(H62:I62))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H62:I62))</f>
-        <v>66.534734008059402</v>
+        <v>31.392481709914676</v>
       </c>
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
@@ -3191,15 +3193,15 @@
       </c>
       <c r="H63" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32077143527881397</v>
+        <v>0.80277511242564925</v>
       </c>
       <c r="I63" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1533473455995118</v>
+        <v>3.1071967573937025</v>
       </c>
       <c r="J63" s="21">
         <f t="array" aca="1" ref="J63" ca="1">MMULT(MMULT(H63:I63,$D$9:$E$10),TRANSPOSE(H63:I63))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H63:I63))</f>
-        <v>63.542281557521882</v>
+        <v>24.333456824714062</v>
       </c>
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
@@ -3215,15 +3217,15 @@
       </c>
       <c r="H64" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6544834931892349</v>
+        <v>-1.0632484700257401</v>
       </c>
       <c r="I64" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1490982141081627</v>
+        <v>6.348135714589759</v>
       </c>
       <c r="J64" s="21">
         <f t="array" aca="1" ref="J64" ca="1">MMULT(MMULT(H64:I64,$D$9:$E$10),TRANSPOSE(H64:I64))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H64:I64))</f>
-        <v>20.28707756819982</v>
+        <v>64.695370278169662</v>
       </c>
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
@@ -3239,15 +3241,15 @@
       </c>
       <c r="H65" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5598027086965436</v>
+        <v>-0.36404498193809703</v>
       </c>
       <c r="I65" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6800560273130918</v>
+        <v>5.0488519339229629</v>
       </c>
       <c r="J65" s="21">
         <f t="array" aca="1" ref="J65" ca="1">MMULT(MMULT(H65:I65,$D$9:$E$10),TRANSPOSE(H65:I65))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H65:I65))</f>
-        <v>38.376724892009406</v>
+        <v>45.090752371367614</v>
       </c>
       <c r="K65" s="15"/>
       <c r="L65" s="15"/>
@@ -3263,15 +3265,15 @@
       </c>
       <c r="H66" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.59855416767379421</v>
+        <v>1.5228885806935728</v>
       </c>
       <c r="I66" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>3.2068635740039264</v>
+        <v>7.3955208343592931</v>
       </c>
       <c r="J66" s="21">
         <f t="array" aca="1" ref="J66" ca="1">MMULT(MMULT(H66:I66,$D$9:$E$10),TRANSPOSE(H66:I66))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H66:I66))</f>
-        <v>21.674032866907226</v>
+        <v>89.640778539473573</v>
       </c>
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
@@ -3287,15 +3289,15 @@
       </c>
       <c r="H67" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.433313456881258</v>
+        <v>0.54835344427824095</v>
       </c>
       <c r="I67" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3279014973279377</v>
+        <v>6.309451857582971</v>
       </c>
       <c r="J67" s="21">
         <f t="array" aca="1" ref="J67" ca="1">MMULT(MMULT(H67:I67,$D$9:$E$10),TRANSPOSE(H67:I67))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H67:I67))</f>
-        <v>47.45258744957416</v>
+        <v>66.44438856189737</v>
       </c>
       <c r="K67" s="15"/>
       <c r="L67" s="15"/>
@@ -3311,15 +3313,15 @@
       </c>
       <c r="H68" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15477066075867324</v>
+        <v>0.58392879038024337</v>
       </c>
       <c r="I68" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6913800776934007</v>
+        <v>4.2841019051064615</v>
       </c>
       <c r="J68" s="21">
         <f t="array" aca="1" ref="J68" ca="1">MMULT(MMULT(H68:I68,$D$9:$E$10),TRANSPOSE(H68:I68))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H68:I68))</f>
-        <v>55.645593439246639</v>
+        <v>36.998767166758086</v>
       </c>
       <c r="K68" s="15"/>
       <c r="L68" s="15"/>
@@ -3335,15 +3337,15 @@
       </c>
       <c r="H69" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4324423279941131E-2</v>
+        <v>-1.1397076415681484</v>
       </c>
       <c r="I69" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.323722011251431</v>
+        <v>4.7760769692674652</v>
       </c>
       <c r="J69" s="21">
         <f t="array" aca="1" ref="J69" ca="1">MMULT(MMULT(H69:I69,$D$9:$E$10),TRANSPOSE(H69:I69))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H69:I69))</f>
-        <v>35.917078483313915</v>
+        <v>40.934737318549487</v>
       </c>
       <c r="K69" s="15"/>
       <c r="L69" s="15"/>
@@ -3359,15 +3361,15 @@
       </c>
       <c r="H70" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27134140335006601</v>
+        <v>0.62939811477936547</v>
       </c>
       <c r="I70" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7674860937884347</v>
+        <v>4.6022078951973509</v>
       </c>
       <c r="J70" s="21">
         <f t="array" aca="1" ref="J70" ca="1">MMULT(MMULT(H70:I70,$D$9:$E$10),TRANSPOSE(H70:I70))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H70:I70))</f>
-        <v>57.221490584418902</v>
+        <v>41.24408730785278</v>
       </c>
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
@@ -3383,15 +3385,15 @@
       </c>
       <c r="H71" s="19">
         <f t="shared" ref="H71:H102" ca="1" si="3">_xlfn.NORM.INV(RAND(),$E$39,1)</f>
-        <v>0.34136869692088562</v>
+        <v>-1.1760325261468509</v>
       </c>
       <c r="I71" s="19">
         <f t="shared" ref="I71:I102" ca="1" si="4">_xlfn.NORM.INV(RAND(),$E$40,1)</f>
-        <v>4.6728199773926198</v>
+        <v>5.9098760635322982</v>
       </c>
       <c r="J71" s="21">
         <f t="array" aca="1" ref="J71" ca="1">MMULT(MMULT(H71:I71,$D$9:$E$10),TRANSPOSE(H71:I71))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H71:I71))</f>
-        <v>41.667165128690165</v>
+        <v>57.597126790702845</v>
       </c>
       <c r="K71" s="15"/>
       <c r="L71" s="15"/>
@@ -3407,15 +3409,15 @@
       </c>
       <c r="H72" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1742651584473829</v>
+        <v>1.1086731874265383</v>
       </c>
       <c r="I72" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.6884769757615956</v>
+        <v>5.3267786681570417</v>
       </c>
       <c r="J72" s="21">
         <f t="array" aca="1" ref="J72" ca="1">MMULT(MMULT(H72:I72,$D$9:$E$10),TRANSPOSE(H72:I72))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H72:I72))</f>
-        <v>45.637418392978589</v>
+        <v>53.128188263532671</v>
       </c>
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
@@ -3431,15 +3433,15 @@
       </c>
       <c r="H73" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.8840264572438764E-2</v>
+        <v>1.1926386531300541</v>
       </c>
       <c r="I73" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.032143714056688</v>
+        <v>3.2628823883158589</v>
       </c>
       <c r="J73" s="21">
         <f t="array" aca="1" ref="J73" ca="1">MMULT(MMULT(H73:I73,$D$9:$E$10),TRANSPOSE(H73:I73))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H73:I73))</f>
-        <v>45.365356182290284</v>
+        <v>27.505595296445215</v>
       </c>
       <c r="K73" s="15"/>
       <c r="L73" s="15"/>
@@ -3455,15 +3457,15 @@
       </c>
       <c r="H74" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3939582827093778E-2</v>
+        <v>0.23322361121147608</v>
       </c>
       <c r="I74" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1971577099049604</v>
+        <v>5.2490990098200978</v>
       </c>
       <c r="J74" s="21">
         <f t="array" aca="1" ref="J74" ca="1">MMULT(MMULT(H74:I74,$D$9:$E$10),TRANSPOSE(H74:I74))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H74:I74))</f>
-        <v>47.902049745008171</v>
+        <v>49.070276929424196</v>
       </c>
       <c r="K74" s="15"/>
       <c r="L74" s="15"/>
@@ -3479,15 +3481,15 @@
       </c>
       <c r="H75" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.8776138848496076</v>
+        <v>1.8320030235894949</v>
       </c>
       <c r="I75" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>6.5817881986257731</v>
+        <v>4.9940039465779389</v>
       </c>
       <c r="J75" s="21">
         <f t="array" aca="1" ref="J75" ca="1">MMULT(MMULT(H75:I75,$D$9:$E$10),TRANSPOSE(H75:I75))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H75:I75))</f>
-        <v>67.539680932103806</v>
+        <v>51.936332330367826</v>
       </c>
       <c r="K75" s="15"/>
       <c r="L75" s="15"/>
@@ -3503,15 +3505,15 @@
       </c>
       <c r="H76" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.72722943276593466</v>
+        <v>-0.35368547628121733</v>
       </c>
       <c r="I76" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0668358424793709</v>
+        <v>5.0444208136040514</v>
       </c>
       <c r="J76" s="21">
         <f t="array" aca="1" ref="J76" ca="1">MMULT(MMULT(H76:I76,$D$9:$E$10),TRANSPOSE(H76:I76))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H76:I76))</f>
-        <v>44.287343174134378</v>
+        <v>45.041587062707805</v>
       </c>
       <c r="K76" s="15"/>
       <c r="L76" s="15"/>
@@ -3527,15 +3529,15 @@
       </c>
       <c r="H77" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-1.1910631466394177</v>
+        <v>-0.4893754443633162</v>
       </c>
       <c r="I77" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.310756612975343</v>
+        <v>3.978358735586752</v>
       </c>
       <c r="J77" s="21">
         <f t="array" aca="1" ref="J77" ca="1">MMULT(MMULT(H77:I77,$D$9:$E$10),TRANSPOSE(H77:I77))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H77:I77))</f>
-        <v>33.671091007576365</v>
+        <v>31.00151060818559</v>
       </c>
       <c r="K77" s="15"/>
       <c r="L77" s="15"/>
@@ -3551,15 +3553,15 @@
       </c>
       <c r="H78" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77894495404539321</v>
+        <v>-0.25059581869209868</v>
       </c>
       <c r="I78" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3851237325225165</v>
+        <v>6.2350016751442743</v>
       </c>
       <c r="J78" s="21">
         <f t="array" aca="1" ref="J78" ca="1">MMULT(MMULT(H78:I78,$D$9:$E$10),TRANSPOSE(H78:I78))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H78:I78))</f>
-        <v>53.48364264823627</v>
+        <v>63.376859216590766</v>
       </c>
       <c r="K78" s="15"/>
       <c r="L78" s="15"/>
@@ -3575,15 +3577,15 @@
       </c>
       <c r="H79" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.65529202118618191</v>
+        <v>-2.5172709542984256E-2</v>
       </c>
       <c r="I79" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.6792188441143843</v>
+        <v>5.3890868604833573</v>
       </c>
       <c r="J79" s="21">
         <f t="array" aca="1" ref="J79" ca="1">MMULT(MMULT(H79:I79,$D$9:$E$10),TRANSPOSE(H79:I79))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H79:I79))</f>
-        <v>53.433933625273184</v>
+        <v>50.548892877987569</v>
       </c>
       <c r="K79" s="15"/>
       <c r="L79" s="15"/>
@@ -3599,15 +3601,15 @@
       </c>
       <c r="H80" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.1278009404290725</v>
+        <v>1.4576759852169636</v>
       </c>
       <c r="I80" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.6985668062621677</v>
+        <v>4.6785675833117208</v>
       </c>
       <c r="J80" s="21">
         <f t="array" aca="1" ref="J80" ca="1">MMULT(MMULT(H80:I80,$D$9:$E$10),TRANSPOSE(H80:I80))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H80:I80))</f>
-        <v>54.900861129569009</v>
+        <v>45.643436213174333</v>
       </c>
       <c r="K80" s="15"/>
       <c r="L80" s="15"/>
@@ -3623,15 +3625,15 @@
       </c>
       <c r="H81" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-6.5541406353709974E-2</v>
+        <v>-1.4498413828947245</v>
       </c>
       <c r="I81" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.6386477542222373</v>
+        <v>4.9975933989179211</v>
       </c>
       <c r="J81" s="21">
         <f t="array" aca="1" ref="J81" ca="1">MMULT(MMULT(H81:I81,$D$9:$E$10),TRANSPOSE(H81:I81))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H81:I81))</f>
-        <v>39.87931546152565</v>
+        <v>44.168670646344296</v>
       </c>
       <c r="K81" s="15"/>
       <c r="L81" s="15"/>
@@ -3647,15 +3649,15 @@
       </c>
       <c r="H82" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3773807467203828</v>
+        <v>-1.8637694912292517</v>
       </c>
       <c r="I82" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.9596415795791593</v>
+        <v>6.7684529822562416</v>
       </c>
       <c r="J82" s="21">
         <f t="array" aca="1" ref="J82" ca="1">MMULT(MMULT(H82:I82,$D$9:$E$10),TRANSPOSE(H82:I82))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H82:I82))</f>
-        <v>60.630452543521798</v>
+        <v>72.63186543601681</v>
       </c>
       <c r="K82" s="15"/>
       <c r="L82" s="15"/>
@@ -3671,15 +3673,15 @@
       </c>
       <c r="H83" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1153287110764463</v>
+        <v>-1.8282149442760907</v>
       </c>
       <c r="I83" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.4512247770418201</v>
+        <v>6.3083538792918663</v>
       </c>
       <c r="J83" s="21">
         <f t="array" aca="1" ref="J83" ca="1">MMULT(MMULT(H83:I83,$D$9:$E$10),TRANSPOSE(H83:I83))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H83:I83))</f>
-        <v>56.110694944982711</v>
+        <v>64.714684177466452</v>
       </c>
       <c r="K83" s="15"/>
       <c r="L83" s="15"/>
@@ -3695,15 +3697,15 @@
       </c>
       <c r="H84" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91724019087739483</v>
+        <v>-0.24265581052274723</v>
       </c>
       <c r="I84" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>3.4212021554370722</v>
+        <v>5.0746331446223865</v>
       </c>
       <c r="J84" s="21">
         <f t="array" aca="1" ref="J84" ca="1">MMULT(MMULT(H84:I84,$D$9:$E$10),TRANSPOSE(H84:I84))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H84:I84))</f>
-        <v>28.98248295050854</v>
+        <v>45.62400435232459</v>
       </c>
       <c r="K84" s="15"/>
       <c r="L84" s="15"/>
@@ -3719,15 +3721,15 @@
       </c>
       <c r="H85" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.57112954479275102</v>
+        <v>0.32890686942253472</v>
       </c>
       <c r="I85" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5690575009811774</v>
+        <v>5.235209945769741</v>
       </c>
       <c r="J85" s="21">
         <f t="array" aca="1" ref="J85" ca="1">MMULT(MMULT(H85:I85,$D$9:$E$10),TRANSPOSE(H85:I85))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H85:I85))</f>
-        <v>37.765316773753995</v>
+        <v>49.114256426963777</v>
       </c>
       <c r="K85" s="15"/>
       <c r="L85" s="15"/>
@@ -3743,15 +3745,15 @@
       </c>
       <c r="H86" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28489760411003723</v>
+        <v>-0.67322863461277749</v>
       </c>
       <c r="I86" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.7872506982084673</v>
+        <v>7.5758554150043445</v>
       </c>
       <c r="J86" s="21">
         <f t="array" aca="1" ref="J86" ca="1">MMULT(MMULT(H86:I86,$D$9:$E$10),TRANSPOSE(H86:I86))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H86:I86))</f>
-        <v>57.577132893906011</v>
+        <v>86.803786454305055</v>
       </c>
       <c r="K86" s="15"/>
       <c r="L86" s="15"/>
@@ -3767,15 +3769,15 @@
       </c>
       <c r="H87" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73314830803250441</v>
+        <v>0.32567179232110438</v>
       </c>
       <c r="I87" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.9635726926932726</v>
+        <v>3.9643829252148279</v>
       </c>
       <c r="J87" s="21">
         <f t="array" aca="1" ref="J87" ca="1">MMULT(MMULT(H87:I87,$D$9:$E$10),TRANSPOSE(H87:I87))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H87:I87))</f>
-        <v>62.15544139747842</v>
+        <v>32.331269379550037</v>
       </c>
       <c r="K87" s="15"/>
       <c r="L87" s="15"/>
@@ -3791,15 +3793,15 @@
       </c>
       <c r="H88" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.99921701813400254</v>
+        <v>-0.83770262852950583</v>
       </c>
       <c r="I88" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.4952292857682519</v>
+        <v>5.5072206231274716</v>
       </c>
       <c r="J88" s="21">
         <f t="array" aca="1" ref="J88" ca="1">MMULT(MMULT(H88:I88,$D$9:$E$10),TRANSPOSE(H88:I88))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H88:I88))</f>
-        <v>36.188787069628155</v>
+        <v>51.384701921096656</v>
       </c>
       <c r="K88" s="15"/>
       <c r="L88" s="15"/>
@@ -3815,15 +3817,15 @@
       </c>
       <c r="H89" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22957673287636549</v>
+        <v>-0.64132468535144049</v>
       </c>
       <c r="I89" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>6.8562736323154052</v>
+        <v>3.4328545199156322</v>
       </c>
       <c r="J89" s="21">
         <f t="array" aca="1" ref="J89" ca="1">MMULT(MMULT(H89:I89,$D$9:$E$10),TRANSPOSE(H89:I89))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H89:I89))</f>
-        <v>75.175018325352383</v>
+        <v>24.644556215905958</v>
       </c>
       <c r="K89" s="15"/>
       <c r="L89" s="15"/>
@@ -3839,15 +3841,15 @@
       </c>
       <c r="H90" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2806078964609715</v>
+        <v>-1.4053421208282142</v>
       </c>
       <c r="I90" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.7757053002595109</v>
+        <v>6.0440375348296751</v>
       </c>
       <c r="J90" s="21">
         <f t="array" aca="1" ref="J90" ca="1">MMULT(MMULT(H90:I90,$D$9:$E$10),TRANSPOSE(H90:I90))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H90:I90))</f>
-        <v>61.943373190344957</v>
+        <v>59.870842096666195</v>
       </c>
       <c r="K90" s="15"/>
       <c r="L90" s="15"/>
@@ -3863,15 +3865,15 @@
       </c>
       <c r="H91" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.66146647137734182</v>
+        <v>-0.56329204060154192</v>
       </c>
       <c r="I91" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8338384610156693</v>
+        <v>5.6306844494323975</v>
       </c>
       <c r="J91" s="21">
         <f t="array" aca="1" ref="J91" ca="1">MMULT(MMULT(H91:I91,$D$9:$E$10),TRANSPOSE(H91:I91))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H91:I91))</f>
-        <v>55.822163511912713</v>
+        <v>53.418059008611372</v>
       </c>
       <c r="K91" s="15"/>
       <c r="L91" s="15"/>
@@ -3887,15 +3889,15 @@
       </c>
       <c r="H92" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4292286704080241</v>
+        <v>0.60814569970030263</v>
       </c>
       <c r="I92" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5190969501373521</v>
+        <v>5.2283162299392272</v>
       </c>
       <c r="J92" s="21">
         <f t="array" aca="1" ref="J92" ca="1">MMULT(MMULT(H92:I92,$D$9:$E$10),TRANSPOSE(H92:I92))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H92:I92))</f>
-        <v>32.790811748555782</v>
+        <v>49.834688111467415</v>
       </c>
       <c r="K92" s="15"/>
       <c r="L92" s="15"/>
@@ -3911,15 +3913,15 @@
       </c>
       <c r="H93" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5132651926185692</v>
+        <v>0.20139049254740335</v>
       </c>
       <c r="I93" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.008145406807456</v>
+        <v>6.1775473331773867</v>
       </c>
       <c r="J93" s="21">
         <f t="array" aca="1" ref="J93" ca="1">MMULT(MMULT(H93:I93,$D$9:$E$10),TRANSPOSE(H93:I93))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H93:I93))</f>
-        <v>38.927578350388153</v>
+        <v>63.315619501939878</v>
       </c>
       <c r="K93" s="15"/>
       <c r="L93" s="15"/>
@@ -3935,15 +3937,15 @@
       </c>
       <c r="H94" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3842629284842451</v>
+        <v>0.20255927307334967</v>
       </c>
       <c r="I94" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.6839243288540544</v>
+        <v>5.7889592540948724</v>
       </c>
       <c r="J94" s="21">
         <f t="array" aca="1" ref="J94" ca="1">MMULT(MMULT(H94:I94,$D$9:$E$10),TRANSPOSE(H94:I94))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H94:I94))</f>
-        <v>67.880191589152233</v>
+        <v>57.11403506720486</v>
       </c>
       <c r="K94" s="15"/>
       <c r="L94" s="15"/>
@@ -3959,15 +3961,15 @@
       </c>
       <c r="H95" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1579346301353897</v>
+        <v>-0.46316437771848573</v>
       </c>
       <c r="I95" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>6.483773002716112</v>
+        <v>5.1712659535082786</v>
       </c>
       <c r="J95" s="21">
         <f t="array" aca="1" ref="J95" ca="1">MMULT(MMULT(H95:I95,$D$9:$E$10),TRANSPOSE(H95:I95))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H95:I95))</f>
-        <v>72.78902085968771</v>
+        <v>46.715247861297385</v>
       </c>
       <c r="K95" s="15"/>
       <c r="L95" s="15"/>
@@ -3983,15 +3985,15 @@
       </c>
       <c r="H96" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8415824386620563E-2</v>
+        <v>-1.6389442448660803</v>
       </c>
       <c r="I96" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>3.4831130426702699</v>
+        <v>6.2578008782957539</v>
       </c>
       <c r="J96" s="21">
         <f t="array" aca="1" ref="J96" ca="1">MMULT(MMULT(H96:I96,$D$9:$E$10),TRANSPOSE(H96:I96))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H96:I96))</f>
-        <v>26.120115254448525</v>
+        <v>63.599525093629609</v>
       </c>
       <c r="K96" s="15"/>
       <c r="L96" s="15"/>
@@ -4007,15 +4009,15 @@
       </c>
       <c r="H97" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3894380713805188</v>
+        <v>-1.7595847622293066</v>
       </c>
       <c r="I97" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>3.4479483205242891</v>
+        <v>5.6080029863787528</v>
       </c>
       <c r="J97" s="21">
         <f t="array" aca="1" ref="J97" ca="1">MMULT(MMULT(H97:I97,$D$9:$E$10),TRANSPOSE(H97:I97))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H97:I97))</f>
-        <v>31.778993271446595</v>
+        <v>53.458678451758971</v>
       </c>
       <c r="K97" s="15"/>
       <c r="L97" s="15"/>
@@ -4031,15 +4033,15 @@
       </c>
       <c r="H98" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3886724915316737</v>
+        <v>0.98952875100141224</v>
       </c>
       <c r="I98" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5814533228168841</v>
+        <v>4.3317737567967898</v>
       </c>
       <c r="J98" s="21">
         <f t="array" aca="1" ref="J98" ca="1">MMULT(MMULT(H98:I98,$D$9:$E$10),TRANSPOSE(H98:I98))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H98:I98))</f>
-        <v>59.572863249382983</v>
+        <v>39.049583558321771</v>
       </c>
       <c r="K98" s="15"/>
       <c r="L98" s="15"/>
@@ -4055,15 +4057,15 @@
       </c>
       <c r="H99" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.14843923231143058</v>
+        <v>2.0170722662379785</v>
       </c>
       <c r="I99" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.6191029907498748</v>
+        <v>6.7095089146470519</v>
       </c>
       <c r="J99" s="21">
         <f t="array" aca="1" ref="J99" ca="1">MMULT(MMULT(H99:I99,$D$9:$E$10),TRANSPOSE(H99:I99))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H99:I99))</f>
-        <v>39.389240910908853</v>
+        <v>79.958270594018842</v>
       </c>
       <c r="K99" s="15"/>
       <c r="L99" s="15"/>
@@ -4079,15 +4081,15 @@
       </c>
       <c r="H100" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0524012000856098E-2</v>
+        <v>-0.53861876897334071</v>
       </c>
       <c r="I100" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.6906518879371175</v>
+        <v>5.0706132611430981</v>
       </c>
       <c r="J100" s="21">
         <f t="array" aca="1" ref="J100" ca="1">MMULT(MMULT(H100:I100,$D$9:$E$10),TRANSPOSE(H100:I100))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H100:I100))</f>
-        <v>40.888036917107726</v>
+        <v>45.206444528996307</v>
       </c>
       <c r="K100" s="15"/>
       <c r="L100" s="15"/>
@@ -4103,15 +4105,15 @@
       </c>
       <c r="H101" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.84474418170932841</v>
+        <v>-1.5626506872614776</v>
       </c>
       <c r="I101" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.766180822092668</v>
+        <v>5.9356504155756484</v>
       </c>
       <c r="J101" s="21">
         <f t="array" aca="1" ref="J101" ca="1">MMULT(MMULT(H101:I101,$D$9:$E$10),TRANSPOSE(H101:I101))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H101:I101))</f>
-        <v>39.960563104658391</v>
+        <v>58.291123314101782</v>
       </c>
       <c r="K101" s="15"/>
       <c r="L101" s="15"/>
@@ -4127,15 +4129,15 @@
       </c>
       <c r="H102" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.8377524333821581</v>
+        <v>-0.23748655102283592</v>
       </c>
       <c r="I102" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8457076649204014</v>
+        <v>5.9660319941560465</v>
       </c>
       <c r="J102" s="21">
         <f t="array" aca="1" ref="J102" ca="1">MMULT(MMULT(H102:I102,$D$9:$E$10),TRANSPOSE(H102:I102))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H102:I102))</f>
-        <v>41.052285273041193</v>
+        <v>59.039092491788807</v>
       </c>
       <c r="K102" s="15"/>
       <c r="L102" s="15"/>
@@ -4151,15 +4153,15 @@
       </c>
       <c r="H103" s="19">
         <f t="shared" ref="H103:H138" ca="1" si="5">_xlfn.NORM.INV(RAND(),$E$39,1)</f>
-        <v>-1.747649167925811</v>
+        <v>0.63189482198565461</v>
       </c>
       <c r="I103" s="19">
         <f t="shared" ref="I103:I138" ca="1" si="6">_xlfn.NORM.INV(RAND(),$E$40,1)</f>
-        <v>4.7937209994379204</v>
+        <v>4.2736675549407384</v>
       </c>
       <c r="J103" s="21">
         <f t="array" aca="1" ref="J103" ca="1">MMULT(MMULT(H103:I103,$D$9:$E$10),TRANSPOSE(H103:I103))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H103:I103))</f>
-        <v>39.965975128578123</v>
+        <v>37.021985299939686</v>
       </c>
       <c r="K103" s="15"/>
       <c r="L103" s="15"/>
@@ -4175,15 +4177,15 @@
       </c>
       <c r="H104" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.70276461146071467</v>
+        <v>0.9655436117077083</v>
       </c>
       <c r="I104" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>3.9919575334491819</v>
+        <v>5.4643940159136974</v>
       </c>
       <c r="J104" s="21">
         <f t="array" aca="1" ref="J104" ca="1">MMULT(MMULT(H104:I104,$D$9:$E$10),TRANSPOSE(H104:I104))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H104:I104))</f>
-        <v>34.505727016162083</v>
+        <v>54.580539714333199</v>
       </c>
       <c r="K104" s="15"/>
       <c r="L104" s="15"/>
@@ -4199,15 +4201,15 @@
       </c>
       <c r="H105" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3116632222686004</v>
+        <v>-1.844471199826436</v>
       </c>
       <c r="I105" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2913804359984962</v>
+        <v>7.4485371746686448</v>
       </c>
       <c r="J105" s="21">
         <f t="array" aca="1" ref="J105" ca="1">MMULT(MMULT(H105:I105,$D$9:$E$10),TRANSPOSE(H105:I105))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H105:I105))</f>
-        <v>41.236917865922479</v>
+        <v>84.987986348431633</v>
       </c>
       <c r="K105" s="15"/>
       <c r="L105" s="15"/>
@@ -4223,15 +4225,15 @@
       </c>
       <c r="H106" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0712393832552354</v>
+        <v>4.9457805834530313E-2</v>
       </c>
       <c r="I106" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>6.180860801187924</v>
+        <v>3.886690932437443</v>
       </c>
       <c r="J106" s="21">
         <f t="array" aca="1" ref="J106" ca="1">MMULT(MMULT(H106:I106,$D$9:$E$10),TRANSPOSE(H106:I106))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H106:I106))</f>
-        <v>73.430234180926362</v>
+        <v>30.754491820268239</v>
       </c>
       <c r="K106" s="15"/>
       <c r="L106" s="15"/>
@@ -4247,15 +4249,15 @@
       </c>
       <c r="H107" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88754280432194133</v>
+        <v>1.7951051160271216</v>
       </c>
       <c r="I107" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>6.1513219858126025</v>
+        <v>5.8941115883987356</v>
       </c>
       <c r="J107" s="21">
         <f t="array" aca="1" ref="J107" ca="1">MMULT(MMULT(H107:I107,$D$9:$E$10),TRANSPOSE(H107:I107))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H107:I107))</f>
-        <v>65.894410758861383</v>
+        <v>65.129610379732199</v>
       </c>
       <c r="K107" s="15"/>
       <c r="L107" s="15"/>
@@ -4271,15 +4273,15 @@
       </c>
       <c r="H108" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.5139254007545262</v>
+        <v>0.52903514683240571</v>
       </c>
       <c r="I108" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4767213170043645</v>
+        <v>3.6360772629856157</v>
       </c>
       <c r="J108" s="21">
         <f t="array" aca="1" ref="J108" ca="1">MMULT(MMULT(H108:I108,$D$9:$E$10),TRANSPOSE(H108:I108))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H108:I108))</f>
-        <v>49.651555568933652</v>
+        <v>29.103315394592229</v>
       </c>
       <c r="K108" s="15"/>
       <c r="L108" s="15"/>
@@ -4295,15 +4297,15 @@
       </c>
       <c r="H109" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0156727339246611E-2</v>
+        <v>1.2105427306758196</v>
       </c>
       <c r="I109" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.483981803953232</v>
+        <v>5.5770381894089951</v>
       </c>
       <c r="J109" s="21">
         <f t="array" aca="1" ref="J109" ca="1">MMULT(MMULT(H109:I109,$D$9:$E$10),TRANSPOSE(H109:I109))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H109:I109))</f>
-        <v>38.133399644218159</v>
+        <v>57.298006887906048</v>
       </c>
       <c r="K109" s="15"/>
       <c r="L109" s="15"/>
@@ -4319,15 +4321,15 @@
       </c>
       <c r="H110" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8769326606495274</v>
+        <v>0.29559459929292886</v>
       </c>
       <c r="I110" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8017781138968676</v>
+        <v>5.8551945353763788</v>
       </c>
       <c r="J110" s="21">
         <f t="array" aca="1" ref="J110" ca="1">MMULT(MMULT(H110:I110,$D$9:$E$10),TRANSPOSE(H110:I110))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H110:I110))</f>
-        <v>82.624972160835398</v>
+        <v>58.382646554323927</v>
       </c>
       <c r="K110" s="15"/>
       <c r="L110" s="15"/>
@@ -4343,15 +4345,15 @@
       </c>
       <c r="H111" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.2814094302792014</v>
+        <v>0.47412560722891234</v>
       </c>
       <c r="I111" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2672277266918304</v>
+        <v>5.0908808014426672</v>
       </c>
       <c r="J111" s="21">
         <f t="array" aca="1" ref="J111" ca="1">MMULT(MMULT(H111:I111,$D$9:$E$10),TRANSPOSE(H111:I111))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H111:I111))</f>
-        <v>33.075925215385716</v>
+        <v>47.453636846156215</v>
       </c>
       <c r="K111" s="15"/>
       <c r="L111" s="15"/>
@@ -4367,15 +4369,15 @@
       </c>
       <c r="H112" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38763268514195848</v>
+        <v>-1.1489577330355105</v>
       </c>
       <c r="I112" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6650511159581924</v>
+        <v>4.3145778710518421</v>
       </c>
       <c r="J112" s="21">
         <f t="array" aca="1" ref="J112" ca="1">MMULT(MMULT(H112:I112,$D$9:$E$10),TRANSPOSE(H112:I112))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H112:I112))</f>
-        <v>56.066165764268177</v>
+        <v>34.896082095808694</v>
       </c>
       <c r="K112" s="15"/>
       <c r="L112" s="15"/>
@@ -4391,15 +4393,15 @@
       </c>
       <c r="H113" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56250365795823531</v>
+        <v>-0.73035052913320475</v>
       </c>
       <c r="I113" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>3.6679741550960419</v>
+        <v>3.2118529968918419</v>
       </c>
       <c r="J113" s="21">
         <f t="array" aca="1" ref="J113" ca="1">MMULT(MMULT(H113:I113,$D$9:$E$10),TRANSPOSE(H113:I113))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H113:I113))</f>
-        <v>30.129852361927789</v>
+        <v>22.236122498349218</v>
       </c>
       <c r="K113" s="15"/>
       <c r="L113" s="15"/>
@@ -4415,15 +4417,15 @@
       </c>
       <c r="H114" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.2988733518269511</v>
+        <v>-0.3190717606440967</v>
       </c>
       <c r="I114" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9398626116733961</v>
+        <v>7.6343586474404432</v>
       </c>
       <c r="J114" s="21">
         <f t="array" aca="1" ref="J114" ca="1">MMULT(MMULT(H114:I114,$D$9:$E$10),TRANSPOSE(H114:I114))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H114:I114))</f>
-        <v>41.952144997507617</v>
+        <v>88.28452981466279</v>
       </c>
       <c r="K114" s="15"/>
       <c r="L114" s="15"/>
@@ -4439,15 +4441,15 @@
       </c>
       <c r="H115" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.13359119845808412</v>
+        <v>-0.91103985762124762</v>
       </c>
       <c r="I115" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5498746955599731</v>
+        <v>5.7000398529352552</v>
       </c>
       <c r="J115" s="21">
         <f t="array" aca="1" ref="J115" ca="1">MMULT(MMULT(H115:I115,$D$9:$E$10),TRANSPOSE(H115:I115))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H115:I115))</f>
-        <v>26.418182149348119</v>
+        <v>54.298527643723233</v>
       </c>
       <c r="K115" s="15"/>
       <c r="L115" s="15"/>
@@ -4463,15 +4465,15 @@
       </c>
       <c r="H116" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.7509683685662341</v>
+        <v>1.7760381322773475</v>
       </c>
       <c r="I116" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7748224791615872</v>
+        <v>5.5728052731031683</v>
       </c>
       <c r="J116" s="21">
         <f t="array" aca="1" ref="J116" ca="1">MMULT(MMULT(H116:I116,$D$9:$E$10),TRANSPOSE(H116:I116))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H116:I116))</f>
-        <v>39.711204746173948</v>
+        <v>60.053767416197054</v>
       </c>
       <c r="K116" s="15"/>
       <c r="L116" s="15"/>
@@ -4487,15 +4489,15 @@
       </c>
       <c r="H117" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.2820073739879718</v>
+        <v>9.1076714795603864E-2</v>
       </c>
       <c r="I117" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>6.9071938283813257</v>
+        <v>5.9272436087267977</v>
       </c>
       <c r="J117" s="21">
         <f t="array" aca="1" ref="J117" ca="1">MMULT(MMULT(H117:I117,$D$9:$E$10),TRANSPOSE(H117:I117))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H117:I117))</f>
-        <v>73.13562268135</v>
+        <v>59.03163962966903</v>
       </c>
       <c r="K117" s="15"/>
       <c r="L117" s="15"/>
@@ -4511,15 +4513,15 @@
       </c>
       <c r="H118" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.16165718455326497</v>
+        <v>0.24683703374653668</v>
       </c>
       <c r="I118" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5306724814068682</v>
+        <v>5.4722988013381864</v>
       </c>
       <c r="J118" s="21">
         <f t="array" aca="1" ref="J118" ca="1">MMULT(MMULT(H118:I118,$D$9:$E$10),TRANSPOSE(H118:I118))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H118:I118))</f>
-        <v>38.190844551062838</v>
+        <v>52.389851965201956</v>
       </c>
       <c r="K118" s="15"/>
       <c r="L118" s="15"/>
@@ -4535,15 +4537,15 @@
       </c>
       <c r="H119" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.37487647447268219</v>
+        <v>-0.23273292681569435</v>
       </c>
       <c r="I119" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2399685912866989</v>
+        <v>6.3385586522225061</v>
       </c>
       <c r="J119" s="21">
         <f t="array" aca="1" ref="J119" ca="1">MMULT(MMULT(H119:I119,$D$9:$E$10),TRANSPOSE(H119:I119))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H119:I119))</f>
-        <v>47.433048150512931</v>
+        <v>65.120259158147633</v>
       </c>
       <c r="K119" s="15"/>
       <c r="L119" s="15"/>
@@ -4559,15 +4561,15 @@
       </c>
       <c r="H120" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2727101854674352</v>
+        <v>1.0899961459849734</v>
       </c>
       <c r="I120" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.8811501313156676</v>
+        <v>5.0649949112538453</v>
       </c>
       <c r="J120" s="21">
         <f t="array" aca="1" ref="J120" ca="1">MMULT(MMULT(H120:I120,$D$9:$E$10),TRANSPOSE(H120:I120))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H120:I120))</f>
-        <v>63.55044916493182</v>
+        <v>49.282236986274768</v>
       </c>
       <c r="K120" s="15"/>
       <c r="L120" s="15"/>
@@ -4583,15 +4585,15 @@
       </c>
       <c r="H121" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86604082245981406</v>
+        <v>1.9791245000105455</v>
       </c>
       <c r="I121" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8568574912795208</v>
+        <v>3.7510869751921261</v>
       </c>
       <c r="J121" s="21">
         <f t="array" aca="1" ref="J121" ca="1">MMULT(MMULT(H121:I121,$D$9:$E$10),TRANSPOSE(H121:I121))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H121:I121))</f>
-        <v>46.364643829262398</v>
+        <v>36.950184182787602</v>
       </c>
       <c r="K121" s="15"/>
       <c r="L121" s="15"/>
@@ -4607,15 +4609,15 @@
       </c>
       <c r="H122" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6071824499790025</v>
+        <v>-0.93449102299198705</v>
       </c>
       <c r="I122" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>6.3735037829312047</v>
+        <v>5.6732708021991298</v>
       </c>
       <c r="J122" s="21">
         <f t="array" aca="1" ref="J122" ca="1">MMULT(MMULT(H122:I122,$D$9:$E$10),TRANSPOSE(H122:I122))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H122:I122))</f>
-        <v>68.305783480262704</v>
+        <v>53.883376229950315</v>
       </c>
       <c r="K122" s="15"/>
       <c r="L122" s="15"/>
@@ -4631,15 +4633,15 @@
       </c>
       <c r="H123" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3609951456584195</v>
+        <v>5.6767979821568344E-2</v>
       </c>
       <c r="I123" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2792628875078789</v>
+        <v>5.4364222794776644</v>
       </c>
       <c r="J123" s="21">
         <f t="array" aca="1" ref="J123" ca="1">MMULT(MMULT(H123:I123,$D$9:$E$10),TRANSPOSE(H123:I123))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H123:I123))</f>
-        <v>54.92296140893059</v>
+        <v>51.417134881887947</v>
       </c>
       <c r="K123" s="15"/>
       <c r="L123" s="15"/>
@@ -4655,15 +4657,15 @@
       </c>
       <c r="H124" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38646552289344033</v>
+        <v>1.426657204323142</v>
       </c>
       <c r="I124" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>3.9557734813036731</v>
+        <v>5.0390619891301185</v>
       </c>
       <c r="J124" s="21">
         <f t="array" aca="1" ref="J124" ca="1">MMULT(MMULT(H124:I124,$D$9:$E$10),TRANSPOSE(H124:I124))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H124:I124))</f>
-        <v>32.779989929665696</v>
+        <v>50.437058874109866</v>
       </c>
       <c r="K124" s="15"/>
       <c r="L124" s="15"/>
@@ -4679,15 +4681,15 @@
       </c>
       <c r="H125" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77299956509738577</v>
+        <v>0.84105106670511276</v>
       </c>
       <c r="I125" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6737289755840017</v>
+        <v>5.5925917843141129</v>
       </c>
       <c r="J125" s="21">
         <f t="array" aca="1" ref="J125" ca="1">MMULT(MMULT(H125:I125,$D$9:$E$10),TRANSPOSE(H125:I125))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H125:I125))</f>
-        <v>57.802643413650394</v>
+        <v>56.036919033450197</v>
       </c>
       <c r="K125" s="15"/>
       <c r="L125" s="15"/>
@@ -4703,15 +4705,15 @@
       </c>
       <c r="H126" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32174637577077869</v>
+        <v>1.1523321193226208</v>
       </c>
       <c r="I126" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5151720382310385</v>
+        <v>4.7064774093699642</v>
       </c>
       <c r="J126" s="21">
         <f t="array" aca="1" ref="J126" ca="1">MMULT(MMULT(H126:I126,$D$9:$E$10),TRANSPOSE(H126:I126))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H126:I126))</f>
-        <v>17.455538392457399</v>
+        <v>44.609372794257467</v>
       </c>
       <c r="K126" s="15"/>
       <c r="L126" s="15"/>
@@ -4727,15 +4729,15 @@
       </c>
       <c r="H127" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.27982795783367598</v>
+        <v>0.11250339487942085</v>
       </c>
       <c r="I127" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4027599415617864</v>
+        <v>4.755474084070209</v>
       </c>
       <c r="J127" s="21">
         <f t="array" aca="1" ref="J127" ca="1">MMULT(MMULT(H127:I127,$D$9:$E$10),TRANSPOSE(H127:I127))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H127:I127))</f>
-        <v>36.234154681752628</v>
+        <v>41.874093904162464</v>
       </c>
       <c r="K127" s="15"/>
       <c r="L127" s="15"/>
@@ -4751,15 +4753,15 @@
       </c>
       <c r="H128" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3003208640681685</v>
+        <v>-1.3413671814151786</v>
       </c>
       <c r="I128" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>6.1778644504585269</v>
+        <v>5.7196154286556977</v>
       </c>
       <c r="J128" s="21">
         <f t="array" aca="1" ref="J128" ca="1">MMULT(MMULT(H128:I128,$D$9:$E$10),TRANSPOSE(H128:I128))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H128:I128))</f>
-        <v>68.469263911808838</v>
+        <v>54.708993918886435</v>
       </c>
       <c r="K128" s="15"/>
       <c r="L128" s="15"/>
@@ -4775,15 +4777,15 @@
       </c>
       <c r="H129" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55061014181000656</v>
+        <v>0.56996571370190308</v>
       </c>
       <c r="I129" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9724524085522894</v>
+        <v>3.3606288672770877</v>
       </c>
       <c r="J129" s="21">
         <f t="array" aca="1" ref="J129" ca="1">MMULT(MMULT(H129:I129,$D$9:$E$10),TRANSPOSE(H129:I129))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H129:I129))</f>
-        <v>61.514999360325263</v>
+        <v>26.201134194883956</v>
       </c>
       <c r="K129" s="15"/>
       <c r="L129" s="15"/>
@@ -4799,15 +4801,15 @@
       </c>
       <c r="H130" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.70341454989735175</v>
+        <v>0.69275738481261806</v>
       </c>
       <c r="I130" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>6.7187140122281201</v>
+        <v>4.7817029495660197</v>
       </c>
       <c r="J130" s="21">
         <f t="array" aca="1" ref="J130" ca="1">MMULT(MMULT(H130:I130,$D$9:$E$10),TRANSPOSE(H130:I130))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H130:I130))</f>
-        <v>74.621009705722315</v>
+        <v>43.856922459990102</v>
       </c>
       <c r="K130" s="15"/>
       <c r="L130" s="15"/>
@@ -4823,15 +4825,15 @@
       </c>
       <c r="H131" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.3618978597154696</v>
+        <v>-0.26953851596009293</v>
       </c>
       <c r="I131" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8353185276358417</v>
+        <v>4.5874438529403294</v>
       </c>
       <c r="J131" s="21">
         <f t="array" aca="1" ref="J131" ca="1">MMULT(MMULT(H131:I131,$D$9:$E$10),TRANSPOSE(H131:I131))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H131:I131))</f>
-        <v>27.820014520121298</v>
+        <v>38.927990495307114</v>
       </c>
       <c r="K131" s="15"/>
       <c r="L131" s="15"/>
@@ -4847,15 +4849,15 @@
       </c>
       <c r="H132" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.82750375274554178</v>
+        <v>-0.10138155461585628</v>
       </c>
       <c r="I132" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>6.230968935210198</v>
+        <v>3.9853868792953362</v>
       </c>
       <c r="J132" s="21">
         <f t="array" aca="1" ref="J132" ca="1">MMULT(MMULT(H132:I132,$D$9:$E$10),TRANSPOSE(H132:I132))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H132:I132))</f>
-        <v>61.95110081496663</v>
+        <v>31.632371205225379</v>
       </c>
       <c r="K132" s="15"/>
       <c r="L132" s="15"/>
@@ -4871,15 +4873,15 @@
       </c>
       <c r="H133" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82330132310736848</v>
+        <v>1.3047625344284728</v>
       </c>
       <c r="I133" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.469285483745761</v>
+        <v>5.4145149414648746</v>
       </c>
       <c r="J133" s="21">
         <f t="array" aca="1" ref="J133" ca="1">MMULT(MMULT(H133:I133,$D$9:$E$10),TRANSPOSE(H133:I133))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H133:I133))</f>
-        <v>40.999383708156074</v>
+        <v>55.286962157311024</v>
       </c>
       <c r="K133" s="15"/>
       <c r="L133" s="15"/>
@@ -4895,15 +4897,15 @@
       </c>
       <c r="H134" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.71375150400882681</v>
+        <v>-0.85841167485103897</v>
       </c>
       <c r="I134" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4957561342471788</v>
+        <v>3.8160000779830643</v>
       </c>
       <c r="J134" s="21">
         <f t="array" aca="1" ref="J134" ca="1">MMULT(MMULT(H134:I134,$D$9:$E$10),TRANSPOSE(H134:I134))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H134:I134))</f>
-        <v>50.55454672155259</v>
+        <v>28.845904160917499</v>
       </c>
       <c r="K134" s="15"/>
       <c r="L134" s="15"/>
@@ -4919,15 +4921,15 @@
       </c>
       <c r="H135" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.0105159839513316</v>
+        <v>1.667153550854789</v>
       </c>
       <c r="I135" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>5.8188035963088129</v>
+        <v>5.9816328222324664</v>
       </c>
       <c r="J135" s="21">
         <f t="array" aca="1" ref="J135" ca="1">MMULT(MMULT(H135:I135,$D$9:$E$10),TRANSPOSE(H135:I135))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H135:I135))</f>
-        <v>55.123284279618758</v>
+        <v>65.820170572775908</v>
       </c>
       <c r="K135" s="15"/>
       <c r="L135" s="15"/>
@@ -4943,15 +4945,15 @@
       </c>
       <c r="H136" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85599278960966041</v>
+        <v>-1.1642858255819793E-2</v>
       </c>
       <c r="I136" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>6.3040036056564848</v>
+        <v>5.1825431592028863</v>
       </c>
       <c r="J136" s="21">
         <f t="array" aca="1" ref="J136" ca="1">MMULT(MMULT(H136:I136,$D$9:$E$10),TRANSPOSE(H136:I136))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H136:I136))</f>
-        <v>68.257177907448607</v>
+        <v>47.565776073448902</v>
       </c>
       <c r="K136" s="15"/>
       <c r="L136" s="15"/>
@@ -4967,15 +4969,15 @@
       </c>
       <c r="H137" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2073663022045364</v>
+        <v>-0.64372751328124034</v>
       </c>
       <c r="I137" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5190655431533493</v>
+        <v>6.2155232554530206</v>
       </c>
       <c r="J137" s="21">
         <f t="array" aca="1" ref="J137" ca="1">MMULT(MMULT(H137:I137,$D$9:$E$10),TRANSPOSE(H137:I137))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H137:I137))</f>
-        <v>43.578047850241937</v>
+        <v>62.621752445682169</v>
       </c>
       <c r="K137" s="15"/>
       <c r="L137" s="15"/>
@@ -4991,15 +4993,15 @@
       </c>
       <c r="H138" s="19">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.3508139093415854</v>
+        <v>-1.3918680545133151</v>
       </c>
       <c r="I138" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9354008587185545</v>
+        <v>4.165890867489968</v>
       </c>
       <c r="J138" s="21">
         <f t="array" aca="1" ref="J138" ca="1">MMULT(MMULT(H138:I138,$D$9:$E$10),TRANSPOSE(H138:I138))+MMULT(TRANSPOSE($D$12:$D$13),TRANSPOSE(H138:I138))</f>
-        <v>41.872041560760003</v>
+        <v>33.171770761944238</v>
       </c>
       <c r="K138" s="15"/>
       <c r="L138" s="15"/>
